--- a/股票.xlsx
+++ b/股票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="447">
   <si>
     <t>毛利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1351,6 +1351,46 @@
   </si>
   <si>
     <t>股东结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.09.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总股本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否具有单一大股东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大股东占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1358,7 +1398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1379,16 +1419,70 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1396,11 +1490,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39988402966399123"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39988402966399123"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39988402966399123"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39988402966399123"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1414,15 +1564,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1723,7 +1944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1832,3457 +2053,4247 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="6" max="8" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="1" max="2" width="9" style="19"/>
+    <col min="3" max="3" width="12.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="10" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="9" style="11"/>
+    <col min="12" max="12" width="14.75" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.625" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="M1" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="24">
         <v>15.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="24">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="24">
         <v>8.8800000000000008</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="24">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="24">
         <v>16.98</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="24">
         <v>13.68</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="24">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="24">
         <v>15.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="24">
         <v>13.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="24">
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="24">
         <v>16.97</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="24">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="24">
         <v>8.94</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="24">
         <v>9.91</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="24">
         <v>17.21</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5">
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="24">
         <v>14.32</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5">
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="24">
         <v>14.59</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5">
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="24">
         <v>17.48</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5">
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="24">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5">
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="24">
         <v>12.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5">
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="24">
         <v>7.84</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5">
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="24">
         <v>17.72</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5">
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="24">
         <v>17.45</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5">
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="24">
         <v>9.0299999999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5">
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="24">
         <v>20.16</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5">
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="24">
         <v>15.58</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="24">
         <v>13.67</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5">
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="24">
         <v>14.46</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5">
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="24">
         <v>16.190000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5">
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="24">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5">
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="24">
         <v>19.22</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5">
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="24">
         <v>19.62</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5">
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="24">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5">
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="24">
         <v>20.23</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5">
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="24">
         <v>11.77</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5">
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="24">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5">
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="24">
         <v>10.039999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5">
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="24">
         <v>10.31</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5">
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="24">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+    </row>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5">
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="24">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5">
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="24">
         <v>16.079999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5">
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="24">
         <v>10.79</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5">
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="24">
         <v>12.61</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5">
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="24">
         <v>14.66</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+    </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5">
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="24">
         <v>17.16</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+    </row>
+    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5">
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="24">
         <v>16.23</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+    </row>
+    <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5">
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="24">
         <v>12.96</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+    </row>
+    <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5">
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="24">
         <v>17.48</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+    </row>
+    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5">
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="24">
         <v>12.82</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5">
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="24">
         <v>14.52</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B53" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5">
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="24">
         <v>12.48</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+    </row>
+    <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5">
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="24">
         <v>13.47</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+    </row>
+    <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5">
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="24">
         <v>17.260000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+    </row>
+    <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5">
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="24">
         <v>13.56</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+    </row>
+    <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5">
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="24">
         <v>14.49</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+    </row>
+    <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B58" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5">
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="24">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+    </row>
+    <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5">
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="24">
         <v>11.64</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+    </row>
+    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5">
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="24">
         <v>20.170000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+    </row>
+    <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5">
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="24">
         <v>10.35</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+    </row>
+    <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5">
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="24">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+    </row>
+    <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B63" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5">
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="24">
         <v>19.079999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+    </row>
+    <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B64" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5">
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="24">
         <v>14.91</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+    </row>
+    <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5">
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="24">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+    </row>
+    <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5">
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="24">
         <v>19.350000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+    </row>
+    <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B67" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5">
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="24">
         <v>15.49</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+    </row>
+    <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B68" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5">
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="24">
         <v>14.83</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+    </row>
+    <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B69" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5">
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="24">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+    </row>
+    <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5">
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="24">
         <v>7.58</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+    </row>
+    <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5">
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="24">
         <v>5.96</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+    </row>
+    <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B72" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5">
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="24">
         <v>14.48</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+    </row>
+    <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B73" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5">
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="24">
         <v>12.41</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+    </row>
+    <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B74" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5">
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="24">
         <v>9.1199999999999992</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+    </row>
+    <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B75" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5">
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="24">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+    </row>
+    <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B76" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5">
+      <c r="D76" s="23"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="24">
         <v>19.149999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="5" t="s">
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+    </row>
+    <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5">
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="24">
         <v>11.98</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+    </row>
+    <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5">
+      <c r="D78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="24">
         <v>12.81</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="5" t="s">
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+    </row>
+    <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B79" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5">
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="24">
         <v>17.920000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="5" t="s">
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+    </row>
+    <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B80" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5">
+      <c r="D80" s="23"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="24">
         <v>9.1300000000000008</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="5" t="s">
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+    </row>
+    <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B81" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5">
+      <c r="D81" s="23"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="24">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+    </row>
+    <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B82" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5">
+      <c r="D82" s="23"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="24">
         <v>10.34</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="5" t="s">
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+    </row>
+    <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B83" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5">
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="24">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="5" t="s">
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+    </row>
+    <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B84" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5">
+      <c r="D84" s="23"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="24">
         <v>14.14</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="5" t="s">
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+    </row>
+    <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B85" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5">
+      <c r="D85" s="23"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="24">
         <v>15.63</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="5" t="s">
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+    </row>
+    <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B86" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5">
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="24">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="5" t="s">
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+    </row>
+    <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B87" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5">
+      <c r="D87" s="23"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="24">
         <v>10.82</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+    </row>
+    <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B88" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5">
+      <c r="D88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="24">
         <v>12.46</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="5" t="s">
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+    </row>
+    <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B89" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5">
+      <c r="D89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="24">
         <v>13.52</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="5" t="s">
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+    </row>
+    <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B90" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5">
+      <c r="D90" s="23"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="24">
         <v>16.09</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="5" t="s">
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+    </row>
+    <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B91" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5">
+      <c r="D91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="24">
         <v>14.51</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="5" t="s">
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+    </row>
+    <row r="92" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B92" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5">
+      <c r="D92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="24">
         <v>16.28</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="5" t="s">
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+    </row>
+    <row r="93" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5">
+      <c r="D93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="24">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="5" t="s">
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+    </row>
+    <row r="94" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B94" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5">
+      <c r="D94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="24">
         <v>11.92</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="5" t="s">
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+    </row>
+    <row r="95" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C95" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5">
+      <c r="D95" s="23"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="24">
         <v>17.03</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="5" t="s">
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+    </row>
+    <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C96" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5">
+      <c r="D96" s="23"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="24">
         <v>17.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="5" t="s">
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+    </row>
+    <row r="97" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C97" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5">
+      <c r="D97" s="23"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="24">
         <v>12.77</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="5" t="s">
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+    </row>
+    <row r="98" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B98" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C98" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5">
+      <c r="D98" s="23"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="24">
         <v>16.41</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="5" t="s">
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+    </row>
+    <row r="99" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B99" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C99" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5">
+      <c r="D99" s="23"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="24">
         <v>13.64</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="5" t="s">
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+    </row>
+    <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B100" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C100" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5">
+      <c r="D100" s="23"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="24">
         <v>13.33</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="5" t="s">
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+    </row>
+    <row r="101" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C101" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5">
+      <c r="D101" s="23"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="24">
         <v>19.21</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="5" t="s">
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+    </row>
+    <row r="102" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B102" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C102" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5">
+      <c r="D102" s="23"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="24">
         <v>18.12</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="5" t="s">
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+    </row>
+    <row r="103" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B103" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C103" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5">
+      <c r="D103" s="23"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="24">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="5" t="s">
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+    </row>
+    <row r="104" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B104" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C104" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5">
+      <c r="D104" s="23"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="24">
         <v>14.33</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="5" t="s">
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+    </row>
+    <row r="105" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B105" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C105" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5">
+      <c r="D105" s="23"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="24">
         <v>18.66</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="5" t="s">
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+    </row>
+    <row r="106" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B106" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C106" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5">
+      <c r="D106" s="23"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="24">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="5" t="s">
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+    </row>
+    <row r="107" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B107" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C107" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5">
+      <c r="D107" s="23"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="24">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="5" t="s">
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+    </row>
+    <row r="108" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B108" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5">
+      <c r="D108" s="23"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="24">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="5" t="s">
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+    </row>
+    <row r="109" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B109" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C109" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5">
+      <c r="D109" s="23"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="24">
         <v>14.62</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="5" t="s">
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+    </row>
+    <row r="110" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B110" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C110" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5">
+      <c r="D110" s="23"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="24">
         <v>8.9600000000000009</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="5" t="s">
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+    </row>
+    <row r="111" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B111" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C111" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5">
+      <c r="D111" s="23"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="24">
         <v>15.65</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="5" t="s">
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+    </row>
+    <row r="112" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B112" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C112" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5">
+      <c r="D112" s="23"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="24">
         <v>12.76</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="5" t="s">
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+    </row>
+    <row r="113" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B113" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C113" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5">
+      <c r="D113" s="23"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="24">
         <v>12.56</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="5" t="s">
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+    </row>
+    <row r="114" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B114" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C114" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5">
+      <c r="D114" s="23"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="24">
         <v>8.0299999999999994</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="5" t="s">
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+    </row>
+    <row r="115" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B115" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C115" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5">
+      <c r="D115" s="23"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="24">
         <v>6.58</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="5" t="s">
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+    </row>
+    <row r="116" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B116" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C116" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5">
+      <c r="D116" s="23"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="24">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="5" t="s">
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
+    </row>
+    <row r="117" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B117" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C117" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5">
+      <c r="D117" s="23"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="24">
         <v>19.93</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="5" t="s">
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+    </row>
+    <row r="118" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B118" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C118" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5">
+      <c r="D118" s="23"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="24">
         <v>9.69</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="5" t="s">
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+    </row>
+    <row r="119" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B119" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C119" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5">
+      <c r="D119" s="23"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="24">
         <v>19.61</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="5" t="s">
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+    </row>
+    <row r="120" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B120" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C120" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5">
+      <c r="D120" s="23"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="24">
         <v>8.1199999999999992</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="5" t="s">
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+    </row>
+    <row r="121" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B121" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C121" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5">
+      <c r="D121" s="23"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="24">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="5" t="s">
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+    </row>
+    <row r="122" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B122" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C122" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5">
+      <c r="D122" s="23"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="24">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="5" t="s">
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+    </row>
+    <row r="123" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B123" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C123" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5">
+      <c r="D123" s="23"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="24">
         <v>7.39</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123" s="5" t="s">
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+    </row>
+    <row r="124" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B124" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C124" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5">
+      <c r="D124" s="23"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="24">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="5" t="s">
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+    </row>
+    <row r="125" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B125" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C125" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5">
+      <c r="D125" s="23"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="24">
         <v>13.98</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="5" t="s">
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+    </row>
+    <row r="126" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B126" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C126" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5">
+      <c r="D126" s="23"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="24">
         <v>14.69</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="5" t="s">
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+    </row>
+    <row r="127" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B127" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C127" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5">
+      <c r="D127" s="23"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="24">
         <v>15.42</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="5" t="s">
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+    </row>
+    <row r="128" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B128" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C128" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5">
+      <c r="D128" s="23"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="24">
         <v>12.97</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="5" t="s">
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+    </row>
+    <row r="129" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B129" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C129" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5">
+      <c r="D129" s="23"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="24">
         <v>13.13</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="5" t="s">
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+    </row>
+    <row r="130" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B130" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C130" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5">
+      <c r="D130" s="23"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="24">
         <v>15.92</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="5" t="s">
+      <c r="L130" s="24"/>
+      <c r="M130" s="24"/>
+    </row>
+    <row r="131" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B131" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C131" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5">
+      <c r="D131" s="23"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="24">
         <v>20.18</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131" s="5" t="s">
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+    </row>
+    <row r="132" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B132" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C132" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5">
+      <c r="D132" s="23"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="24">
         <v>13.88</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="5" t="s">
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
+    </row>
+    <row r="133" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B133" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C133" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5">
+      <c r="D133" s="23"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="24">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="5" t="s">
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
+    </row>
+    <row r="134" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B134" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C134" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5">
+      <c r="D134" s="23"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="24">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="5" t="s">
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+    </row>
+    <row r="135" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B135" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C135" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5">
+      <c r="D135" s="23"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="24">
         <v>17.16</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="5" t="s">
+      <c r="L135" s="24"/>
+      <c r="M135" s="24"/>
+    </row>
+    <row r="136" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B136" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C136" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5">
+      <c r="D136" s="23"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="24">
         <v>15.93</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A136" s="5" t="s">
+      <c r="L136" s="24"/>
+      <c r="M136" s="24"/>
+    </row>
+    <row r="137" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B137" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C137" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5">
+      <c r="D137" s="23"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="28"/>
+      <c r="K137" s="24">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A137" s="5" t="s">
+      <c r="L137" s="24"/>
+      <c r="M137" s="24"/>
+    </row>
+    <row r="138" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B138" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C138" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5">
+      <c r="D138" s="23"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="24">
         <v>10.71</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A138" s="5" t="s">
+      <c r="L138" s="24"/>
+      <c r="M138" s="24"/>
+    </row>
+    <row r="139" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B139" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C139" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5">
+      <c r="D139" s="23"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="24">
         <v>11.29</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A139" s="5" t="s">
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+    </row>
+    <row r="140" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B140" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C140" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5">
+      <c r="D140" s="23"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="28"/>
+      <c r="K140" s="24">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A140" s="5" t="s">
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
+    </row>
+    <row r="141" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B141" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C141" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5">
+      <c r="D141" s="23"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="24">
         <v>13.61</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A141" s="5" t="s">
+      <c r="L141" s="24"/>
+      <c r="M141" s="24"/>
+    </row>
+    <row r="142" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B142" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C142" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5">
+      <c r="D142" s="23"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="24">
         <v>15.56</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A142" s="5" t="s">
+      <c r="L142" s="24"/>
+      <c r="M142" s="24"/>
+    </row>
+    <row r="143" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B143" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C143" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5">
+      <c r="D143" s="23"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="24">
         <v>6.97</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A143" s="5" t="s">
+      <c r="L143" s="24"/>
+      <c r="M143" s="24"/>
+    </row>
+    <row r="144" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B144" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C144" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5">
+      <c r="D144" s="23"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="24">
         <v>11.66</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A144" s="5" t="s">
+      <c r="L144" s="24"/>
+      <c r="M144" s="24"/>
+    </row>
+    <row r="145" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B145" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C145" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5">
+      <c r="D145" s="23"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="24">
         <v>7.76</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A145" s="5" t="s">
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+    </row>
+    <row r="146" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B146" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C146" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5">
+      <c r="D146" s="23"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="24">
         <v>15.55</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A146" s="5" t="s">
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+    </row>
+    <row r="147" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B147" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C147" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5">
+      <c r="D147" s="23"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="24">
         <v>10.24</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="5" t="s">
+      <c r="L147" s="24"/>
+      <c r="M147" s="24"/>
+    </row>
+    <row r="148" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B148" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C148" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5">
+      <c r="D148" s="23"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="24">
         <v>12.49</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="5" t="s">
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+    </row>
+    <row r="149" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B149" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C149" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5">
+      <c r="D149" s="23"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="24">
         <v>18.23</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="5" t="s">
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
+    </row>
+    <row r="150" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B150" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C150" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5">
+      <c r="D150" s="23"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="24">
         <v>20.149999999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A150" s="5" t="s">
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+    </row>
+    <row r="151" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B151" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C151" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5">
+      <c r="D151" s="23"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="24">
         <v>12.88</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A151" s="5" t="s">
+      <c r="L151" s="24"/>
+      <c r="M151" s="24"/>
+    </row>
+    <row r="152" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B152" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C152" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5">
+      <c r="D152" s="23"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="24">
         <v>14.45</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A152" s="5" t="s">
+      <c r="L152" s="24"/>
+      <c r="M152" s="24"/>
+    </row>
+    <row r="153" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B153" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C153" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5">
+      <c r="D153" s="23"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="24">
         <v>8.41</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A153" s="5" t="s">
+      <c r="L153" s="24"/>
+      <c r="M153" s="24"/>
+    </row>
+    <row r="154" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B154" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C154" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5">
+      <c r="D154" s="23"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="24">
         <v>14.18</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="5" t="s">
+      <c r="L154" s="24"/>
+      <c r="M154" s="24"/>
+    </row>
+    <row r="155" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B155" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C155" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5">
+      <c r="D155" s="23"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="24">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A155" s="5" t="s">
+      <c r="L155" s="24"/>
+      <c r="M155" s="24"/>
+    </row>
+    <row r="156" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B156" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C156" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5">
+      <c r="D156" s="23"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="24">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A156" s="5" t="s">
+      <c r="L156" s="24"/>
+      <c r="M156" s="24"/>
+    </row>
+    <row r="157" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B157" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C157" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5">
+      <c r="D157" s="23"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="24">
         <v>15.64</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A157" s="5" t="s">
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
+    </row>
+    <row r="158" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B158" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C158" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5">
+      <c r="D158" s="23"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="28"/>
+      <c r="K158" s="24">
         <v>9.57</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A158" s="5" t="s">
+      <c r="L158" s="24"/>
+      <c r="M158" s="24"/>
+    </row>
+    <row r="159" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B159" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C159" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5">
+      <c r="D159" s="23"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="28"/>
+      <c r="K159" s="24">
         <v>11.16</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A159" s="5" t="s">
+      <c r="L159" s="24"/>
+      <c r="M159" s="24"/>
+    </row>
+    <row r="160" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B160" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C160" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5">
+      <c r="D160" s="23"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="24">
         <v>17.37</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A160" s="5" t="s">
+      <c r="L160" s="24"/>
+      <c r="M160" s="24"/>
+    </row>
+    <row r="161" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B161" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C161" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5">
+      <c r="D161" s="23"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="24">
         <v>7.07</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A161" s="5" t="s">
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+    </row>
+    <row r="162" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B162" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C162" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5">
+      <c r="D162" s="23"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="25"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="24">
         <v>10.07</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A162" s="5" t="s">
+      <c r="L162" s="24"/>
+      <c r="M162" s="24"/>
+    </row>
+    <row r="163" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B163" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C163" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5">
+      <c r="D163" s="23"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="24">
         <v>14.73</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A163" s="5" t="s">
+      <c r="L163" s="24"/>
+      <c r="M163" s="24"/>
+    </row>
+    <row r="164" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B164" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C164" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5">
+      <c r="D164" s="23"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="24">
         <v>8.32</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A164" s="5" t="s">
+      <c r="L164" s="24"/>
+      <c r="M164" s="24"/>
+    </row>
+    <row r="165" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B165" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C165" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5">
+      <c r="D165" s="23"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="28"/>
+      <c r="K165" s="24">
         <v>9.4700000000000006</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A165" s="5" t="s">
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+    </row>
+    <row r="166" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B166" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C166" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5">
+      <c r="D166" s="23"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="24">
         <v>7.54</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A166" s="5" t="s">
+      <c r="L166" s="24"/>
+      <c r="M166" s="24"/>
+    </row>
+    <row r="167" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B167" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C167" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5">
+      <c r="D167" s="23">
+        <v>38.35</v>
+      </c>
+      <c r="E167" s="24"/>
+      <c r="F167" s="29">
+        <v>71789.210000000006</v>
+      </c>
+      <c r="G167" s="26">
+        <v>9.59</v>
+      </c>
+      <c r="H167" s="27">
+        <v>69.87</v>
+      </c>
+      <c r="I167" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="J167" s="28">
+        <v>18.97</v>
+      </c>
+      <c r="K167" s="24">
         <v>6.17</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A167" s="5" t="s">
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
+    </row>
+    <row r="168" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B168" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C168" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5">
+      <c r="D168" s="23"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="26"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="24">
         <v>12.74</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A168" s="5" t="s">
+      <c r="L168" s="24"/>
+      <c r="M168" s="24"/>
+    </row>
+    <row r="169" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B169" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C169" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5">
+      <c r="D169" s="23"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="24">
         <v>13.78</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A169" s="5" t="s">
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
+    </row>
+    <row r="170" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B170" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C170" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5">
+      <c r="D170" s="23"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="24">
         <v>17.239999999999998</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A170" s="5" t="s">
+      <c r="L170" s="24"/>
+      <c r="M170" s="24"/>
+    </row>
+    <row r="171" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B171" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C171" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5">
+      <c r="D171" s="23"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="24">
         <v>20.18</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A171" s="5" t="s">
+      <c r="L171" s="24"/>
+      <c r="M171" s="24"/>
+    </row>
+    <row r="172" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B172" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C172" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5">
+      <c r="D172" s="23"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="24">
         <v>8.27</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A172" s="5" t="s">
+      <c r="L172" s="24"/>
+      <c r="M172" s="24"/>
+    </row>
+    <row r="173" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B173" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C173" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5">
+      <c r="D173" s="23"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="24">
         <v>14.22</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A173" s="5" t="s">
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
+    </row>
+    <row r="174" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B174" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C174" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5">
+      <c r="D174" s="23"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="28"/>
+      <c r="K174" s="24">
         <v>19.39</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A174" s="5" t="s">
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
+    </row>
+    <row r="175" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B175" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C175" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5">
+      <c r="D175" s="23"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="24">
         <v>15.44</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A175" s="5" t="s">
+      <c r="L175" s="24"/>
+      <c r="M175" s="24"/>
+    </row>
+    <row r="176" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B176" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C176" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5">
+      <c r="D176" s="23"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="24">
         <v>17.68</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A176" s="5" t="s">
+      <c r="L176" s="24"/>
+      <c r="M176" s="24"/>
+    </row>
+    <row r="177" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B177" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C177" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5">
+      <c r="D177" s="23"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="24">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A177" s="5" t="s">
+      <c r="L177" s="24"/>
+      <c r="M177" s="24"/>
+    </row>
+    <row r="178" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B178" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C178" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5">
+      <c r="D178" s="23"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="24">
         <v>12.52</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A178" s="5" t="s">
+      <c r="L178" s="24"/>
+      <c r="M178" s="24"/>
+    </row>
+    <row r="179" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B179" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C179" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5">
+      <c r="D179" s="23"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="24">
         <v>12.84</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A179" s="5" t="s">
+      <c r="L179" s="24"/>
+      <c r="M179" s="24"/>
+    </row>
+    <row r="180" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B180" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C180" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5">
+      <c r="D180" s="23"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="25"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="28"/>
+      <c r="K180" s="24">
         <v>20.13</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A180" s="5" t="s">
+      <c r="L180" s="24"/>
+      <c r="M180" s="24"/>
+    </row>
+    <row r="181" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B181" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C181" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5">
+      <c r="D181" s="23"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="25"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="24">
         <v>10.81</v>
+      </c>
+      <c r="L181" s="24"/>
+      <c r="M181" s="24"/>
+    </row>
+    <row r="184" spans="1:13" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="30"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="31"/>
+      <c r="F184" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="G184" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="H184" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="I184" s="35"/>
+      <c r="J184" s="36" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:J180">
     <sortCondition descending="1" ref="C1"/>
   </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/股票.xlsx
+++ b/股票.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="470">
   <si>
     <t>毛利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,12 +333,6 @@
     <t>建筑装饰</t>
   </si>
   <si>
-    <t>SZ002157</t>
-  </si>
-  <si>
-    <t>正邦科技</t>
-  </si>
-  <si>
     <t>农产品加工</t>
   </si>
   <si>
@@ -447,12 +441,6 @@
     <t>法因数控</t>
   </si>
   <si>
-    <t>SZ002277</t>
-  </si>
-  <si>
-    <t>友阿股份</t>
-  </si>
-  <si>
     <t>零售</t>
   </si>
   <si>
@@ -687,12 +675,6 @@
     <t>亚太科技</t>
   </si>
   <si>
-    <t>SZ002548</t>
-  </si>
-  <si>
-    <t>金新农</t>
-  </si>
-  <si>
     <t>SZ002553</t>
   </si>
   <si>
@@ -780,12 +762,6 @@
     <t>乔治白</t>
   </si>
   <si>
-    <t>SZ002688</t>
-  </si>
-  <si>
-    <t>金河生物</t>
-  </si>
-  <si>
     <t>农业服务</t>
   </si>
   <si>
@@ -823,18 +799,6 @@
   </si>
   <si>
     <t>银江股份</t>
-  </si>
-  <si>
-    <t>SZ300021</t>
-  </si>
-  <si>
-    <t>大禹节水</t>
-  </si>
-  <si>
-    <t>SZ300022</t>
-  </si>
-  <si>
-    <t>吉峰农机</t>
   </si>
   <si>
     <t>SZ300026</t>
@@ -1493,6 +1457,42 @@
   </si>
   <si>
     <t>98.74</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2287,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2311,7 +2311,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="35" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -2337,16 +2337,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="48"/>
@@ -2357,7 +2357,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2369,13 +2369,13 @@
       <c r="F3" s="34"/>
       <c r="G3" s="39"/>
       <c r="H3" s="43" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2403,10 +2403,10 @@
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>63</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>63</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>63</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>63</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>63</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>63</v>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>63</v>
@@ -2564,13 +2564,13 @@
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="19"/>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="19"/>
@@ -2610,13 +2610,13 @@
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="19"/>
@@ -2633,13 +2633,13 @@
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="19"/>
@@ -2656,13 +2656,13 @@
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="19"/>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="19"/>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="19"/>
@@ -2771,13 +2771,13 @@
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="19"/>
@@ -2794,13 +2794,13 @@
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>60</v>
@@ -2863,13 +2863,13 @@
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D25" s="17">
         <v>66.48</v>
@@ -2881,10 +2881,10 @@
         <v>10.220000000000001</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="I25" s="21">
         <v>65.03</v>
@@ -2898,13 +2898,13 @@
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D26" s="17">
         <v>67.25</v>
@@ -2916,10 +2916,10 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="I26" s="21">
         <v>69.97</v>
@@ -2933,13 +2933,13 @@
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="19"/>
@@ -2956,13 +2956,13 @@
     </row>
     <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="19"/>
@@ -2979,13 +2979,13 @@
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="19"/>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>37</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>37</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>37</v>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>37</v>
@@ -3117,13 +3117,13 @@
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="19"/>
@@ -3140,13 +3140,13 @@
     </row>
     <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="19"/>
@@ -3163,13 +3163,13 @@
     </row>
     <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="19"/>
@@ -3186,13 +3186,13 @@
     </row>
     <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="19"/>
@@ -3209,13 +3209,13 @@
     </row>
     <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="19"/>
@@ -3232,13 +3232,13 @@
     </row>
     <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="19"/>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="19"/>
@@ -3278,13 +3278,13 @@
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="19"/>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="19"/>
@@ -3324,13 +3324,13 @@
     </row>
     <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="19"/>
@@ -3347,13 +3347,13 @@
     </row>
     <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="19"/>
@@ -3370,13 +3370,13 @@
     </row>
     <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="19"/>
@@ -3416,10 +3416,10 @@
     </row>
     <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>69</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>69</v>
@@ -3462,13 +3462,13 @@
     </row>
     <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="19"/>
@@ -3485,13 +3485,13 @@
     </row>
     <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="19"/>
@@ -3508,13 +3508,13 @@
     </row>
     <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="19"/>
@@ -3549,10 +3549,10 @@
         <v>9.02</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="I53" s="21">
         <v>29.2</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>49</v>
@@ -3586,10 +3586,10 @@
         <v>9.81</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I54" s="21">
         <v>23.79</v>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>49</v>
@@ -3623,10 +3623,10 @@
         <v>8.44</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="I55" s="21">
         <v>34.72</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>49</v>
@@ -3660,10 +3660,10 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H56" s="44" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I56" s="21">
         <v>34.96</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>49</v>
@@ -3697,10 +3697,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I57" s="21">
         <v>58.02</v>
@@ -3739,10 +3739,10 @@
     </row>
     <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>91</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>91</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>91</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>91</v>
@@ -3854,266 +3854,420 @@
     </row>
     <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
+        <v>241</v>
+      </c>
+      <c r="D64" s="17">
+        <v>58.76</v>
+      </c>
+      <c r="E64" s="22">
+        <v>38914.629999999997</v>
+      </c>
+      <c r="F64" s="20">
+        <v>4.84</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="I64" s="21">
+        <v>20.53</v>
+      </c>
+      <c r="J64" s="21">
+        <v>4.12</v>
+      </c>
       <c r="K64" s="18">
-        <v>19.079999999999998</v>
+        <v>16.68</v>
       </c>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
     </row>
     <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="D65" s="17">
+        <v>48.97</v>
+      </c>
+      <c r="E65" s="47">
+        <v>42210</v>
+      </c>
+      <c r="F65" s="20">
+        <v>8.52</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="H65" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="I65" s="21">
+        <v>24.09</v>
+      </c>
+      <c r="J65" s="21">
+        <v>19</v>
+      </c>
       <c r="K65" s="18">
-        <v>14.91</v>
+        <v>14.83</v>
       </c>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
     </row>
     <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>279</v>
+        <v>377</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+        <v>134</v>
+      </c>
+      <c r="D66" s="17">
+        <v>62.09</v>
+      </c>
+      <c r="E66" s="22">
+        <v>104699.35</v>
+      </c>
+      <c r="F66" s="20">
+        <v>6.46</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="H66" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="I66" s="21">
+        <v>35.78</v>
+      </c>
+      <c r="J66" s="21">
+        <v>4.3499999999999996</v>
+      </c>
       <c r="K66" s="18">
-        <v>16.68</v>
+        <v>5.96</v>
       </c>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
+        <v>134</v>
+      </c>
+      <c r="D67" s="17">
+        <v>50.96</v>
+      </c>
+      <c r="E67" s="22">
+        <v>40088.199999999997</v>
+      </c>
+      <c r="F67" s="20">
+        <v>8.58</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="H67" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="I67" s="21">
+        <v>19.59</v>
+      </c>
+      <c r="J67" s="21">
+        <v>4.91</v>
+      </c>
       <c r="K67" s="18">
-        <v>19.350000000000001</v>
+        <v>14.48</v>
       </c>
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
     </row>
     <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>217</v>
+        <v>389</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
+        <v>134</v>
+      </c>
+      <c r="D68" s="17">
+        <v>30.51</v>
+      </c>
+      <c r="E68" s="22">
+        <v>37624.03</v>
+      </c>
+      <c r="F68" s="20">
+        <v>7.47</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="H68" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="I68" s="21">
+        <v>30</v>
+      </c>
+      <c r="J68" s="21">
+        <v>7.71</v>
+      </c>
       <c r="K68" s="18">
-        <v>15.49</v>
+        <v>12.41</v>
       </c>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
-        <v>287</v>
+        <v>392</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+        <v>134</v>
+      </c>
+      <c r="D69" s="17">
+        <v>34.11</v>
+      </c>
+      <c r="E69" s="22">
+        <v>61758.58</v>
+      </c>
+      <c r="F69" s="20">
+        <v>5.86</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="H69" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="I69" s="21">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="J69" s="21">
+        <v>7.93</v>
+      </c>
       <c r="K69" s="18">
-        <v>14.83</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
     </row>
     <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="D70" s="17">
+        <v>56.94</v>
+      </c>
+      <c r="E70" s="22">
+        <v>26967.37</v>
+      </c>
+      <c r="F70" s="20">
+        <v>6.71</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="H70" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="I70" s="21">
+        <v>37.19</v>
+      </c>
+      <c r="J70" s="21">
+        <v>14.36</v>
+      </c>
       <c r="K70" s="18">
-        <v>10.78</v>
+        <v>12.9</v>
       </c>
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
     </row>
     <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="D71" s="17">
+        <v>58.81</v>
+      </c>
+      <c r="E71" s="22">
+        <v>30846.400000000001</v>
+      </c>
+      <c r="F71" s="20">
+        <v>9.16</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="I71" s="21">
+        <v>46.87</v>
+      </c>
+      <c r="J71" s="21">
+        <v>3.92</v>
+      </c>
       <c r="K71" s="18">
-        <v>7.58</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
-        <v>389</v>
+        <v>55</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>390</v>
+        <v>56</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="D72" s="17">
+        <v>44.1</v>
+      </c>
+      <c r="E72" s="22">
+        <v>52691.31</v>
+      </c>
+      <c r="F72" s="20">
+        <v>7.81</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="H72" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="I72" s="21">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="J72" s="21">
+        <v>7.01</v>
+      </c>
       <c r="K72" s="18">
-        <v>5.96</v>
+        <v>11.98</v>
       </c>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="D73" s="17">
+        <v>75.33</v>
+      </c>
+      <c r="E73" s="22">
+        <v>42268.52</v>
+      </c>
+      <c r="F73" s="20">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="H73" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="I73" s="21">
+        <v>15.73</v>
+      </c>
+      <c r="J73" s="21">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="K73" s="18">
-        <v>14.48</v>
+        <v>12.81</v>
       </c>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="D74" s="17">
+        <v>36.61</v>
+      </c>
+      <c r="E74" s="22">
+        <v>17950.97</v>
+      </c>
+      <c r="F74" s="20">
+        <v>6.14</v>
+      </c>
+      <c r="G74" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="H74" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="I74" s="21">
+        <v>51.94</v>
+      </c>
+      <c r="J74" s="21">
+        <v>3.42</v>
+      </c>
       <c r="K74" s="18">
-        <v>12.41</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>138</v>
+        <v>412</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="19"/>
@@ -4123,205 +4277,135 @@
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
       <c r="K75" s="18">
-        <v>9.1199999999999992</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
     </row>
     <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="17">
-        <v>56.94</v>
-      </c>
-      <c r="E76" s="22">
-        <v>26967.37</v>
-      </c>
-      <c r="F76" s="20">
-        <v>6.71</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>449</v>
-      </c>
-      <c r="H76" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="I76" s="21">
-        <v>37.19</v>
-      </c>
-      <c r="J76" s="21">
-        <v>14.36</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
       <c r="K76" s="18">
-        <v>12.9</v>
+        <v>14.5</v>
       </c>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
     </row>
     <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="17">
-        <v>58.81</v>
-      </c>
-      <c r="E77" s="22">
-        <v>30846.400000000001</v>
-      </c>
-      <c r="F77" s="20">
-        <v>9.16</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="H77" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I77" s="21">
-        <v>46.87</v>
-      </c>
-      <c r="J77" s="21">
-        <v>3.92</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
       <c r="K77" s="18">
-        <v>19.149999999999999</v>
+        <v>10.34</v>
       </c>
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
     </row>
     <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="17">
-        <v>44.1</v>
-      </c>
-      <c r="E78" s="22">
-        <v>52691.31</v>
-      </c>
-      <c r="F78" s="20">
-        <v>7.81</v>
-      </c>
-      <c r="G78" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="H78" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="I78" s="21">
-        <v>32.340000000000003</v>
-      </c>
-      <c r="J78" s="21">
-        <v>7.01</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
       <c r="K78" s="18">
-        <v>11.98</v>
+        <v>13.7</v>
       </c>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
     <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="17">
-        <v>75.33</v>
-      </c>
-      <c r="E79" s="22">
-        <v>42268.52</v>
-      </c>
-      <c r="F79" s="20">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="G79" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="H79" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="I79" s="21">
-        <v>15.73</v>
-      </c>
-      <c r="J79" s="21">
-        <v>9.1999999999999993</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
       <c r="K79" s="18">
-        <v>12.81</v>
+        <v>14.14</v>
       </c>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
     </row>
     <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="17">
-        <v>36.61</v>
-      </c>
-      <c r="E80" s="22">
-        <v>17950.97</v>
-      </c>
-      <c r="F80" s="20">
-        <v>6.14</v>
-      </c>
-      <c r="G80" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="H80" s="44" t="s">
-        <v>457</v>
-      </c>
-      <c r="I80" s="21">
-        <v>51.94</v>
-      </c>
-      <c r="J80" s="21">
-        <v>3.42</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
       <c r="K80" s="18">
-        <v>17.920000000000002</v>
+        <v>15.63</v>
       </c>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
     </row>
     <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>422</v>
+        <v>167</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>423</v>
+        <v>168</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="19"/>
@@ -4331,20 +4415,20 @@
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
       <c r="K81" s="18">
-        <v>9.1300000000000008</v>
+        <v>12.95</v>
       </c>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
     </row>
     <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="19"/>
@@ -4354,20 +4438,20 @@
       <c r="I82" s="21"/>
       <c r="J82" s="21"/>
       <c r="K82" s="18">
-        <v>14.5</v>
+        <v>10.82</v>
       </c>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
     </row>
     <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="19"/>
@@ -4377,20 +4461,20 @@
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
       <c r="K83" s="18">
-        <v>10.34</v>
+        <v>12.46</v>
       </c>
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
     </row>
     <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="19"/>
@@ -4400,20 +4484,20 @@
       <c r="I84" s="21"/>
       <c r="J84" s="21"/>
       <c r="K84" s="18">
-        <v>13.7</v>
+        <v>13.52</v>
       </c>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
     </row>
     <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="19"/>
@@ -4423,20 +4507,20 @@
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
       <c r="K85" s="18">
-        <v>14.14</v>
+        <v>16.09</v>
       </c>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
     </row>
     <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="19"/>
@@ -4446,20 +4530,20 @@
       <c r="I86" s="21"/>
       <c r="J86" s="21"/>
       <c r="K86" s="18">
-        <v>15.63</v>
+        <v>14.51</v>
       </c>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
     </row>
     <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="19"/>
@@ -4469,20 +4553,20 @@
       <c r="I87" s="21"/>
       <c r="J87" s="21"/>
       <c r="K87" s="18">
-        <v>12.95</v>
+        <v>16.28</v>
       </c>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
     </row>
     <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="19"/>
@@ -4492,20 +4576,20 @@
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
       <c r="K88" s="18">
-        <v>10.82</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
     </row>
     <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="19"/>
@@ -4515,20 +4599,20 @@
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
       <c r="K89" s="18">
-        <v>12.46</v>
+        <v>11.92</v>
       </c>
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
     </row>
     <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="16" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="19"/>
@@ -4538,20 +4622,20 @@
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
       <c r="K90" s="18">
-        <v>13.52</v>
+        <v>17.03</v>
       </c>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
     </row>
     <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>429</v>
+        <v>138</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>430</v>
+        <v>139</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="19"/>
@@ -4561,20 +4645,20 @@
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
       <c r="K91" s="18">
-        <v>16.09</v>
+        <v>17.25</v>
       </c>
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="19"/>
@@ -4584,20 +4668,20 @@
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
       <c r="K92" s="18">
-        <v>14.51</v>
+        <v>12.77</v>
       </c>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="19"/>
@@ -4607,20 +4691,20 @@
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
       <c r="K93" s="18">
-        <v>16.28</v>
+        <v>16.41</v>
       </c>
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="19"/>
@@ -4630,20 +4714,20 @@
       <c r="I94" s="21"/>
       <c r="J94" s="21"/>
       <c r="K94" s="18">
-        <v>17.600000000000001</v>
+        <v>13.64</v>
       </c>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="19"/>
@@ -4653,20 +4737,20 @@
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
       <c r="K95" s="18">
-        <v>11.92</v>
+        <v>13.33</v>
       </c>
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="19"/>
@@ -4676,20 +4760,20 @@
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
       <c r="K96" s="18">
-        <v>17.03</v>
+        <v>19.21</v>
       </c>
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
     </row>
     <row r="97" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="19"/>
@@ -4699,20 +4783,20 @@
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
       <c r="K97" s="18">
-        <v>17.25</v>
+        <v>18.12</v>
       </c>
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="19"/>
@@ -4722,20 +4806,20 @@
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
       <c r="K98" s="18">
-        <v>12.77</v>
+        <v>14.2</v>
       </c>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
     </row>
     <row r="99" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="19"/>
@@ -4745,20 +4829,20 @@
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
       <c r="K99" s="18">
-        <v>16.41</v>
+        <v>14.33</v>
       </c>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="19"/>
@@ -4768,20 +4852,20 @@
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
       <c r="K100" s="18">
-        <v>13.64</v>
+        <v>18.66</v>
       </c>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
     </row>
     <row r="101" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
-        <v>32</v>
+        <v>331</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>33</v>
+        <v>332</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="19"/>
@@ -4791,20 +4875,20 @@
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
       <c r="K101" s="18">
-        <v>13.33</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
     </row>
     <row r="102" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
-        <v>406</v>
+        <v>225</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>407</v>
+        <v>226</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="19"/>
@@ -4814,20 +4898,20 @@
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
       <c r="K102" s="18">
-        <v>19.21</v>
+        <v>20.25</v>
       </c>
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
     </row>
     <row r="103" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="19"/>
@@ -4837,20 +4921,20 @@
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
       <c r="K103" s="18">
-        <v>18.12</v>
+        <v>11.1</v>
       </c>
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
     </row>
     <row r="104" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="19"/>
@@ -4860,20 +4944,20 @@
       <c r="I104" s="21"/>
       <c r="J104" s="21"/>
       <c r="K104" s="18">
-        <v>14.2</v>
+        <v>14.62</v>
       </c>
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="16" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="19"/>
@@ -4883,20 +4967,20 @@
       <c r="I105" s="21"/>
       <c r="J105" s="21"/>
       <c r="K105" s="18">
-        <v>14.33</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
     </row>
     <row r="106" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="19"/>
@@ -4906,20 +4990,20 @@
       <c r="I106" s="21"/>
       <c r="J106" s="21"/>
       <c r="K106" s="18">
-        <v>18.66</v>
+        <v>15.65</v>
       </c>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
     </row>
     <row r="107" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="16" t="s">
-        <v>343</v>
+        <v>157</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="19"/>
@@ -4929,20 +5013,20 @@
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
       <c r="K107" s="18">
-        <v>18.600000000000001</v>
+        <v>12.76</v>
       </c>
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
     </row>
     <row r="108" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="16" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="19"/>
@@ -4952,20 +5036,20 @@
       <c r="I108" s="21"/>
       <c r="J108" s="21"/>
       <c r="K108" s="18">
-        <v>20.25</v>
+        <v>12.56</v>
       </c>
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
     </row>
     <row r="109" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="16" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="19"/>
@@ -4975,20 +5059,20 @@
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
       <c r="K109" s="18">
-        <v>11.1</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
     </row>
     <row r="110" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="16" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="19"/>
@@ -4998,20 +5082,20 @@
       <c r="I110" s="21"/>
       <c r="J110" s="21"/>
       <c r="K110" s="18">
-        <v>14.62</v>
+        <v>6.58</v>
       </c>
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
     </row>
     <row r="111" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="19"/>
@@ -5021,20 +5105,20 @@
       <c r="I111" s="21"/>
       <c r="J111" s="21"/>
       <c r="K111" s="18">
-        <v>8.9600000000000009</v>
+        <v>9.99</v>
       </c>
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
     </row>
     <row r="112" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="16" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="19"/>
@@ -5044,20 +5128,20 @@
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
       <c r="K112" s="18">
-        <v>15.65</v>
+        <v>19.93</v>
       </c>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
     </row>
     <row r="113" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="16" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="19"/>
@@ -5067,20 +5151,20 @@
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
       <c r="K113" s="18">
-        <v>12.76</v>
+        <v>9.69</v>
       </c>
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
     </row>
     <row r="114" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="16" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="19"/>
@@ -5090,20 +5174,20 @@
       <c r="I114" s="21"/>
       <c r="J114" s="21"/>
       <c r="K114" s="18">
-        <v>12.56</v>
+        <v>19.61</v>
       </c>
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
     </row>
     <row r="115" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="16" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="19"/>
@@ -5113,20 +5197,20 @@
       <c r="I115" s="21"/>
       <c r="J115" s="21"/>
       <c r="K115" s="18">
-        <v>8.0299999999999994</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
     </row>
     <row r="116" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="16" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="19"/>
@@ -5136,20 +5220,20 @@
       <c r="I116" s="21"/>
       <c r="J116" s="21"/>
       <c r="K116" s="18">
-        <v>6.58</v>
+        <v>17.2</v>
       </c>
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
     </row>
     <row r="117" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="16" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>242</v>
+        <v>403</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="19"/>
@@ -5159,20 +5243,20 @@
       <c r="I117" s="21"/>
       <c r="J117" s="21"/>
       <c r="K117" s="18">
-        <v>9.99</v>
+        <v>10.6</v>
       </c>
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
     </row>
     <row r="118" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="16" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="19"/>
@@ -5182,20 +5266,20 @@
       <c r="I118" s="21"/>
       <c r="J118" s="21"/>
       <c r="K118" s="18">
-        <v>19.93</v>
+        <v>7.39</v>
       </c>
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
     </row>
     <row r="119" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="16" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="19"/>
@@ -5205,20 +5289,20 @@
       <c r="I119" s="21"/>
       <c r="J119" s="21"/>
       <c r="K119" s="18">
-        <v>9.69</v>
+        <v>13.4</v>
       </c>
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
     </row>
     <row r="120" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="16" t="s">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>294</v>
+        <v>121</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="19"/>
@@ -5228,20 +5312,20 @@
       <c r="I120" s="21"/>
       <c r="J120" s="21"/>
       <c r="K120" s="18">
-        <v>19.61</v>
+        <v>13.98</v>
       </c>
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
     </row>
     <row r="121" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="16" t="s">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="19"/>
@@ -5251,20 +5335,20 @@
       <c r="I121" s="21"/>
       <c r="J121" s="21"/>
       <c r="K121" s="18">
-        <v>8.1199999999999992</v>
+        <v>14.69</v>
       </c>
       <c r="L121" s="18"/>
       <c r="M121" s="18"/>
     </row>
     <row r="122" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="16" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="19"/>
@@ -5274,20 +5358,20 @@
       <c r="I122" s="21"/>
       <c r="J122" s="21"/>
       <c r="K122" s="18">
-        <v>17.2</v>
+        <v>15.42</v>
       </c>
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
     </row>
     <row r="123" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="16" t="s">
-        <v>414</v>
+        <v>304</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="19"/>
@@ -5297,20 +5381,20 @@
       <c r="I123" s="21"/>
       <c r="J123" s="21"/>
       <c r="K123" s="18">
-        <v>10.6</v>
+        <v>12.97</v>
       </c>
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="16" t="s">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="19"/>
@@ -5320,20 +5404,20 @@
       <c r="I124" s="21"/>
       <c r="J124" s="21"/>
       <c r="K124" s="18">
-        <v>7.39</v>
+        <v>13.13</v>
       </c>
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
     </row>
     <row r="125" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="16" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="19"/>
@@ -5343,20 +5427,20 @@
       <c r="I125" s="21"/>
       <c r="J125" s="21"/>
       <c r="K125" s="18">
-        <v>13.4</v>
+        <v>15.92</v>
       </c>
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="16" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="19"/>
@@ -5366,20 +5450,20 @@
       <c r="I126" s="21"/>
       <c r="J126" s="21"/>
       <c r="K126" s="18">
-        <v>13.98</v>
+        <v>20.18</v>
       </c>
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
     </row>
     <row r="127" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="16" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="19"/>
@@ -5389,20 +5473,20 @@
       <c r="I127" s="21"/>
       <c r="J127" s="21"/>
       <c r="K127" s="18">
-        <v>14.69</v>
+        <v>13.88</v>
       </c>
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
     </row>
     <row r="128" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="16" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="19"/>
@@ -5412,20 +5496,20 @@
       <c r="I128" s="21"/>
       <c r="J128" s="21"/>
       <c r="K128" s="18">
-        <v>15.42</v>
+        <v>7.83</v>
       </c>
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="16" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>124</v>
+        <v>345</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="19"/>
@@ -5435,20 +5519,20 @@
       <c r="I129" s="21"/>
       <c r="J129" s="21"/>
       <c r="K129" s="18">
-        <v>12.97</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
     </row>
     <row r="130" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="16" t="s">
-        <v>318</v>
+        <v>26</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="19"/>
@@ -5458,20 +5542,20 @@
       <c r="I130" s="21"/>
       <c r="J130" s="21"/>
       <c r="K130" s="18">
-        <v>13.13</v>
+        <v>17.16</v>
       </c>
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="16" t="s">
-        <v>341</v>
+        <v>143</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>342</v>
+        <v>144</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="19"/>
@@ -5481,20 +5565,20 @@
       <c r="I131" s="21"/>
       <c r="J131" s="21"/>
       <c r="K131" s="18">
-        <v>15.92</v>
+        <v>15.93</v>
       </c>
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
     </row>
     <row r="132" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="16" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="D132" s="17"/>
       <c r="E132" s="19"/>
@@ -5504,20 +5588,20 @@
       <c r="I132" s="21"/>
       <c r="J132" s="21"/>
       <c r="K132" s="18">
-        <v>20.18</v>
+        <v>11.65</v>
       </c>
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
     </row>
     <row r="133" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="16" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="19"/>
@@ -5527,20 +5611,20 @@
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
       <c r="K133" s="18">
-        <v>13.88</v>
+        <v>10.71</v>
       </c>
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
     </row>
     <row r="134" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="16" t="s">
-        <v>335</v>
+        <v>128</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>336</v>
+        <v>129</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="19"/>
@@ -5550,20 +5634,20 @@
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
       <c r="K134" s="18">
-        <v>7.83</v>
+        <v>11.29</v>
       </c>
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
     </row>
     <row r="135" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="16" t="s">
-        <v>355</v>
+        <v>197</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>356</v>
+        <v>198</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="19"/>
@@ -5573,20 +5657,20 @@
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
       <c r="K135" s="18">
-        <v>8.1999999999999993</v>
+        <v>14.9</v>
       </c>
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
     </row>
     <row r="136" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="16" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="19"/>
@@ -5596,20 +5680,20 @@
       <c r="I136" s="21"/>
       <c r="J136" s="21"/>
       <c r="K136" s="18">
-        <v>17.16</v>
+        <v>13.61</v>
       </c>
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
     </row>
     <row r="137" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="16" t="s">
-        <v>147</v>
+        <v>408</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>148</v>
+        <v>409</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="19"/>
@@ -5619,20 +5703,20 @@
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
       <c r="K137" s="18">
-        <v>15.93</v>
+        <v>15.56</v>
       </c>
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
     </row>
     <row r="138" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="16" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="19"/>
@@ -5642,20 +5726,20 @@
       <c r="I138" s="21"/>
       <c r="J138" s="21"/>
       <c r="K138" s="18">
-        <v>11.65</v>
+        <v>6.97</v>
       </c>
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
     </row>
     <row r="139" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="16" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="19"/>
@@ -5665,20 +5749,20 @@
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
       <c r="K139" s="18">
-        <v>10.71</v>
+        <v>11.66</v>
       </c>
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
     </row>
     <row r="140" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="16" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="19"/>
@@ -5688,20 +5772,20 @@
       <c r="I140" s="21"/>
       <c r="J140" s="21"/>
       <c r="K140" s="18">
-        <v>11.29</v>
+        <v>7.76</v>
       </c>
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
     </row>
     <row r="141" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="16" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="19"/>
@@ -5711,20 +5795,20 @@
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
       <c r="K141" s="18">
-        <v>14.9</v>
+        <v>15.55</v>
       </c>
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
     </row>
     <row r="142" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="16" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="19"/>
@@ -5734,20 +5818,20 @@
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
       <c r="K142" s="18">
-        <v>13.61</v>
+        <v>10.24</v>
       </c>
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="16" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="19"/>
@@ -5757,20 +5841,20 @@
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
       <c r="K143" s="18">
-        <v>15.56</v>
+        <v>12.49</v>
       </c>
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
     </row>
     <row r="144" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="16" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="19"/>
@@ -5780,20 +5864,20 @@
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
       <c r="K144" s="18">
-        <v>6.97</v>
+        <v>18.23</v>
       </c>
       <c r="L144" s="18"/>
       <c r="M144" s="18"/>
     </row>
     <row r="145" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="16" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="19"/>
@@ -5803,20 +5887,20 @@
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
       <c r="K145" s="18">
-        <v>11.66</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="L145" s="18"/>
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="16" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="19"/>
@@ -5826,20 +5910,20 @@
       <c r="I146" s="21"/>
       <c r="J146" s="21"/>
       <c r="K146" s="18">
-        <v>7.76</v>
+        <v>12.88</v>
       </c>
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
     </row>
     <row r="147" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="16" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="19"/>
@@ -5849,20 +5933,20 @@
       <c r="I147" s="21"/>
       <c r="J147" s="21"/>
       <c r="K147" s="18">
-        <v>15.55</v>
+        <v>14.45</v>
       </c>
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
     </row>
     <row r="148" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="16" t="s">
-        <v>383</v>
+        <v>148</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>384</v>
+        <v>149</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="19"/>
@@ -5872,20 +5956,20 @@
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
       <c r="K148" s="18">
-        <v>10.24</v>
+        <v>8.41</v>
       </c>
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
     </row>
     <row r="149" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="16" t="s">
-        <v>391</v>
+        <v>155</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>392</v>
+        <v>156</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="19"/>
@@ -5895,20 +5979,20 @@
       <c r="I149" s="21"/>
       <c r="J149" s="21"/>
       <c r="K149" s="18">
-        <v>12.49</v>
+        <v>14.18</v>
       </c>
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
     </row>
     <row r="150" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="16" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="19"/>
@@ -5918,20 +6002,20 @@
       <c r="I150" s="21"/>
       <c r="J150" s="21"/>
       <c r="K150" s="18">
-        <v>18.23</v>
+        <v>16.7</v>
       </c>
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
     </row>
     <row r="151" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="16" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="19"/>
@@ -5941,17 +6025,17 @@
       <c r="I151" s="21"/>
       <c r="J151" s="21"/>
       <c r="K151" s="18">
-        <v>20.149999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="16" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>72</v>
@@ -5964,17 +6048,17 @@
       <c r="I152" s="21"/>
       <c r="J152" s="21"/>
       <c r="K152" s="18">
-        <v>12.88</v>
+        <v>15.64</v>
       </c>
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
     </row>
     <row r="153" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="16" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>72</v>
@@ -5987,17 +6071,17 @@
       <c r="I153" s="21"/>
       <c r="J153" s="21"/>
       <c r="K153" s="18">
-        <v>14.45</v>
+        <v>9.57</v>
       </c>
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="16" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>72</v>
@@ -6010,17 +6094,17 @@
       <c r="I154" s="21"/>
       <c r="J154" s="21"/>
       <c r="K154" s="18">
-        <v>8.41</v>
+        <v>11.16</v>
       </c>
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
     </row>
     <row r="155" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="16" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>72</v>
@@ -6033,17 +6117,17 @@
       <c r="I155" s="21"/>
       <c r="J155" s="21"/>
       <c r="K155" s="18">
-        <v>14.18</v>
+        <v>17.37</v>
       </c>
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
     </row>
     <row r="156" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="16" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>72</v>
@@ -6056,17 +6140,17 @@
       <c r="I156" s="21"/>
       <c r="J156" s="21"/>
       <c r="K156" s="18">
-        <v>16.7</v>
+        <v>7.07</v>
       </c>
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="16" t="s">
-        <v>190</v>
+        <v>327</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>72</v>
@@ -6079,17 +6163,17 @@
       <c r="I157" s="21"/>
       <c r="J157" s="21"/>
       <c r="K157" s="18">
-        <v>11.7</v>
+        <v>10.07</v>
       </c>
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
     </row>
     <row r="158" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="16" t="s">
-        <v>208</v>
+        <v>413</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>209</v>
+        <v>414</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>72</v>
@@ -6102,89 +6186,131 @@
       <c r="I158" s="21"/>
       <c r="J158" s="21"/>
       <c r="K158" s="18">
-        <v>15.64</v>
+        <v>14.73</v>
       </c>
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="16" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D159" s="17"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="40"/>
-      <c r="H159" s="44"/>
-      <c r="I159" s="21"/>
-      <c r="J159" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="D159" s="17">
+        <v>31.33</v>
+      </c>
+      <c r="E159" s="22">
+        <v>108055.17</v>
+      </c>
+      <c r="F159" s="20">
+        <v>6.23</v>
+      </c>
+      <c r="G159" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="H159" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="I159" s="21">
+        <v>16.3</v>
+      </c>
+      <c r="J159" s="21">
+        <v>8.01</v>
+      </c>
       <c r="K159" s="18">
-        <v>9.57</v>
+        <v>8.32</v>
       </c>
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
     </row>
     <row r="160" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="16" t="s">
-        <v>234</v>
+        <v>365</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D160" s="17"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="40"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="21"/>
-      <c r="J160" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="D160" s="17">
+        <v>30.26</v>
+      </c>
+      <c r="E160" s="22">
+        <v>90569.66</v>
+      </c>
+      <c r="F160" s="20">
+        <v>6.57</v>
+      </c>
+      <c r="G160" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="H160" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="I160" s="21">
+        <v>37.01</v>
+      </c>
+      <c r="J160" s="21">
+        <v>2.85</v>
+      </c>
       <c r="K160" s="18">
-        <v>11.16</v>
+        <v>7.54</v>
       </c>
       <c r="L160" s="18"/>
       <c r="M160" s="18"/>
     </row>
     <row r="161" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="16" t="s">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>253</v>
+        <v>397</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D161" s="17"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="40"/>
-      <c r="H161" s="44"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="D161" s="17">
+        <v>38.35</v>
+      </c>
+      <c r="E161" s="22">
+        <v>71789.210000000006</v>
+      </c>
+      <c r="F161" s="20">
+        <v>9.59</v>
+      </c>
+      <c r="G161" s="40">
+        <v>69.87</v>
+      </c>
+      <c r="H161" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="I161" s="21">
+        <v>18.97</v>
+      </c>
+      <c r="J161" s="21">
+        <v>15.32</v>
+      </c>
       <c r="K161" s="18">
-        <v>17.37</v>
+        <v>6.17</v>
       </c>
       <c r="L161" s="18"/>
       <c r="M161" s="18"/>
     </row>
     <row r="162" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="16" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="19"/>
@@ -6194,20 +6320,20 @@
       <c r="I162" s="21"/>
       <c r="J162" s="21"/>
       <c r="K162" s="18">
-        <v>7.07</v>
+        <v>12.74</v>
       </c>
       <c r="L162" s="18"/>
       <c r="M162" s="18"/>
     </row>
     <row r="163" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="16" t="s">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>340</v>
+        <v>215</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="19"/>
@@ -6217,20 +6343,20 @@
       <c r="I163" s="21"/>
       <c r="J163" s="21"/>
       <c r="K163" s="18">
-        <v>10.07</v>
+        <v>13.78</v>
       </c>
       <c r="L163" s="18"/>
       <c r="M163" s="18"/>
     </row>
     <row r="164" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="16" t="s">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="19"/>
@@ -6240,131 +6366,89 @@
       <c r="I164" s="21"/>
       <c r="J164" s="21"/>
       <c r="K164" s="18">
-        <v>14.73</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="L164" s="18"/>
       <c r="M164" s="18"/>
     </row>
     <row r="165" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="16" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D165" s="17">
-        <v>31.33</v>
-      </c>
-      <c r="E165" s="22">
-        <v>108055.17</v>
-      </c>
-      <c r="F165" s="20">
-        <v>6.23</v>
-      </c>
-      <c r="G165" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="H165" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="I165" s="21">
-        <v>16.3</v>
-      </c>
-      <c r="J165" s="21">
-        <v>8.01</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D165" s="17"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="40"/>
+      <c r="H165" s="44"/>
+      <c r="I165" s="21"/>
+      <c r="J165" s="21"/>
       <c r="K165" s="18">
-        <v>8.32</v>
+        <v>20.18</v>
       </c>
       <c r="L165" s="18"/>
       <c r="M165" s="18"/>
     </row>
     <row r="166" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="16" t="s">
-        <v>377</v>
+        <v>217</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>378</v>
+        <v>218</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D166" s="17">
-        <v>30.26</v>
-      </c>
-      <c r="E166" s="22">
-        <v>90569.66</v>
-      </c>
-      <c r="F166" s="20">
-        <v>6.57</v>
-      </c>
-      <c r="G166" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="H166" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="I166" s="21">
-        <v>37.01</v>
-      </c>
-      <c r="J166" s="21">
-        <v>2.85</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D166" s="17"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="40"/>
+      <c r="H166" s="44"/>
+      <c r="I166" s="21"/>
+      <c r="J166" s="21"/>
       <c r="K166" s="18">
-        <v>7.54</v>
+        <v>8.27</v>
       </c>
       <c r="L166" s="18"/>
       <c r="M166" s="18"/>
     </row>
     <row r="167" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="16" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>409</v>
+        <v>114</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D167" s="17">
-        <v>38.35</v>
-      </c>
-      <c r="E167" s="22">
-        <v>71789.210000000006</v>
-      </c>
-      <c r="F167" s="20">
-        <v>9.59</v>
-      </c>
-      <c r="G167" s="40">
-        <v>69.87</v>
-      </c>
-      <c r="H167" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="I167" s="21">
-        <v>18.97</v>
-      </c>
-      <c r="J167" s="21">
-        <v>15.32</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D167" s="17"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="40"/>
+      <c r="H167" s="44"/>
+      <c r="I167" s="21"/>
+      <c r="J167" s="21"/>
       <c r="K167" s="18">
-        <v>6.17</v>
+        <v>14.22</v>
       </c>
       <c r="L167" s="18"/>
       <c r="M167" s="18"/>
     </row>
     <row r="168" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="16" t="s">
-        <v>360</v>
+        <v>123</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>361</v>
+        <v>124</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>362</v>
+        <v>115</v>
       </c>
       <c r="D168" s="17"/>
       <c r="E168" s="19"/>
@@ -6374,20 +6458,20 @@
       <c r="I168" s="21"/>
       <c r="J168" s="21"/>
       <c r="K168" s="18">
-        <v>12.74</v>
+        <v>19.39</v>
       </c>
       <c r="L168" s="18"/>
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="16" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="19"/>
@@ -6397,20 +6481,20 @@
       <c r="I169" s="21"/>
       <c r="J169" s="21"/>
       <c r="K169" s="18">
-        <v>13.78</v>
+        <v>15.44</v>
       </c>
       <c r="L169" s="18"/>
       <c r="M169" s="18"/>
     </row>
     <row r="170" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="16" t="s">
-        <v>351</v>
+        <v>193</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>352</v>
+        <v>194</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="D170" s="17"/>
       <c r="E170" s="19"/>
@@ -6420,20 +6504,20 @@
       <c r="I170" s="21"/>
       <c r="J170" s="21"/>
       <c r="K170" s="18">
-        <v>17.239999999999998</v>
+        <v>17.68</v>
       </c>
       <c r="L170" s="18"/>
       <c r="M170" s="18"/>
     </row>
     <row r="171" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="16" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D171" s="17"/>
       <c r="E171" s="19"/>
@@ -6443,20 +6527,20 @@
       <c r="I171" s="21"/>
       <c r="J171" s="21"/>
       <c r="K171" s="18">
-        <v>20.18</v>
+        <v>9.5</v>
       </c>
       <c r="L171" s="18"/>
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="16" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D172" s="17"/>
       <c r="E172" s="19"/>
@@ -6466,20 +6550,20 @@
       <c r="I172" s="21"/>
       <c r="J172" s="21"/>
       <c r="K172" s="18">
-        <v>8.27</v>
+        <v>12.52</v>
       </c>
       <c r="L172" s="18"/>
       <c r="M172" s="18"/>
     </row>
     <row r="173" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="16" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="D173" s="17"/>
       <c r="E173" s="19"/>
@@ -6489,20 +6573,20 @@
       <c r="I173" s="21"/>
       <c r="J173" s="21"/>
       <c r="K173" s="18">
-        <v>14.22</v>
+        <v>12.84</v>
       </c>
       <c r="L173" s="18"/>
       <c r="M173" s="18"/>
     </row>
     <row r="174" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="16" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="D174" s="17"/>
       <c r="E174" s="19"/>
@@ -6512,20 +6596,20 @@
       <c r="I174" s="21"/>
       <c r="J174" s="21"/>
       <c r="K174" s="18">
-        <v>19.39</v>
+        <v>20.13</v>
       </c>
       <c r="L174" s="18"/>
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="16" t="s">
-        <v>179</v>
+        <v>400</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="D175" s="17"/>
       <c r="E175" s="19"/>
@@ -6535,170 +6619,32 @@
       <c r="I175" s="21"/>
       <c r="J175" s="21"/>
       <c r="K175" s="18">
-        <v>15.44</v>
+        <v>10.81</v>
       </c>
       <c r="L175" s="18"/>
       <c r="M175" s="18"/>
     </row>
-    <row r="176" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D176" s="17"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="40"/>
-      <c r="H176" s="44"/>
-      <c r="I176" s="21"/>
-      <c r="J176" s="21"/>
-      <c r="K176" s="18">
-        <v>17.68</v>
-      </c>
-      <c r="L176" s="18"/>
-      <c r="M176" s="18"/>
-    </row>
-    <row r="177" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D177" s="17"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="40"/>
-      <c r="H177" s="44"/>
-      <c r="I177" s="21"/>
-      <c r="J177" s="21"/>
-      <c r="K177" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18"/>
-    </row>
-    <row r="178" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D178" s="17"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="40"/>
-      <c r="H178" s="44"/>
-      <c r="I178" s="21"/>
-      <c r="J178" s="21"/>
-      <c r="K178" s="18">
-        <v>12.52</v>
-      </c>
-      <c r="L178" s="18"/>
-      <c r="M178" s="18"/>
-    </row>
-    <row r="179" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D179" s="17"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="40"/>
-      <c r="H179" s="44"/>
-      <c r="I179" s="21"/>
-      <c r="J179" s="21"/>
-      <c r="K179" s="18">
-        <v>12.84</v>
-      </c>
-      <c r="L179" s="18"/>
-      <c r="M179" s="18"/>
-    </row>
-    <row r="180" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D180" s="17"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="40"/>
-      <c r="H180" s="44"/>
-      <c r="I180" s="21"/>
-      <c r="J180" s="21"/>
-      <c r="K180" s="18">
-        <v>20.13</v>
-      </c>
-      <c r="L180" s="18"/>
-      <c r="M180" s="18"/>
-    </row>
-    <row r="181" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="B181" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D181" s="17"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="40"/>
-      <c r="H181" s="44"/>
-      <c r="I181" s="21"/>
-      <c r="J181" s="21"/>
-      <c r="K181" s="18">
-        <v>10.81</v>
-      </c>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
-    </row>
-    <row r="184" spans="1:13" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="23"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="23"/>
-      <c r="D184" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="E184" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="F184" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="G184" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="H184" s="45"/>
-      <c r="I184" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="J184" s="28"/>
+    <row r="178" spans="1:10" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="23"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="F178" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G178" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="H178" s="45"/>
+      <c r="I178" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="J178" s="28"/>
     </row>
   </sheetData>
   <sortState ref="A2:J180">

--- a/股票.xlsx
+++ b/股票.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="474">
   <si>
     <t>毛利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,12 +930,6 @@
     <t>高盟新材</t>
   </si>
   <si>
-    <t>SZ300206</t>
-  </si>
-  <si>
-    <t>理邦仪器</t>
-  </si>
-  <si>
     <t>医疗器械服务</t>
   </si>
   <si>
@@ -1231,12 +1225,6 @@
   </si>
   <si>
     <t>广安爱众</t>
-  </si>
-  <si>
-    <t>SH600980</t>
-  </si>
-  <si>
-    <t>北矿磁材</t>
   </si>
   <si>
     <t>SH600983</t>
@@ -1432,11 +1420,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>98.35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>96.09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>疑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>98.35</t>
+    <t>第二股东占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.74</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1444,19 +1448,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>96.09</t>
+    <t>99.02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疑</t>
+    <t>100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第二股东占比</t>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>98.74</t>
+    <t>87.27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1464,7 +1468,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>99.02</t>
+    <t>77.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1476,15 +1500,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>87.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>77.31</t>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1492,11 +1512,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>76.4</t>
+    <t>98.47</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2287,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2311,7 +2331,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="35" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -2337,16 +2357,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="48"/>
@@ -2357,7 +2377,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2369,13 +2389,13 @@
       <c r="F3" s="34"/>
       <c r="G3" s="39"/>
       <c r="H3" s="43" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2495,10 +2515,10 @@
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>63</v>
@@ -2518,10 +2538,10 @@
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>63</v>
@@ -2541,10 +2561,10 @@
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>63</v>
@@ -2679,10 +2699,10 @@
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>107</v>
@@ -2702,10 +2722,10 @@
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>107</v>
@@ -2725,10 +2745,10 @@
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>107</v>
@@ -2748,10 +2768,10 @@
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>107</v>
@@ -2771,10 +2791,10 @@
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>107</v>
@@ -2881,15 +2901,17 @@
         <v>10.220000000000001</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I25" s="21">
         <v>65.03</v>
       </c>
-      <c r="J25" s="21"/>
+      <c r="J25" s="21">
+        <v>1.87</v>
+      </c>
       <c r="K25" s="18">
         <v>17.72</v>
       </c>
@@ -2898,10 +2920,10 @@
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>232</v>
@@ -2916,15 +2938,17 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I26" s="21">
         <v>69.97</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="21">
+        <v>2.99</v>
+      </c>
       <c r="K26" s="18">
         <v>17.45</v>
       </c>
@@ -2933,21 +2957,35 @@
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="D27" s="17">
+        <v>41.18</v>
+      </c>
+      <c r="E27" s="22">
+        <v>46674.86</v>
+      </c>
+      <c r="F27" s="20">
+        <v>9.52</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="I27" s="21">
+        <v>40.75</v>
+      </c>
+      <c r="J27" s="21">
+        <v>10.4</v>
+      </c>
       <c r="K27" s="18">
         <v>9.0299999999999994</v>
       </c>
@@ -2956,128 +2994,198 @@
     </row>
     <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="D28" s="17">
+        <v>31.31</v>
+      </c>
+      <c r="E28" s="22">
+        <v>25738.01</v>
+      </c>
+      <c r="F28" s="20">
+        <v>6.7</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="I28" s="21">
+        <v>18.47</v>
+      </c>
+      <c r="J28" s="21">
+        <v>3.56</v>
+      </c>
       <c r="K28" s="18">
-        <v>20.16</v>
+        <v>15.58</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>367</v>
+        <v>35</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>368</v>
+        <v>36</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="D29" s="17">
+        <v>36.54</v>
+      </c>
+      <c r="E29" s="22">
+        <v>103322.42</v>
+      </c>
+      <c r="F29" s="20">
+        <v>6.05</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="I29" s="21">
+        <v>36.04</v>
+      </c>
+      <c r="J29" s="21">
+        <v>7.63</v>
+      </c>
       <c r="K29" s="18">
-        <v>15.58</v>
+        <v>13.67</v>
       </c>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="D30" s="17">
+        <v>32.33</v>
+      </c>
+      <c r="E30" s="22">
+        <v>32314.639999999999</v>
+      </c>
+      <c r="F30" s="20">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="I30" s="21">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="J30" s="21">
+        <v>32.83</v>
+      </c>
       <c r="K30" s="18">
-        <v>13.67</v>
+        <v>14.46</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="D31" s="17">
+        <v>31.96</v>
+      </c>
+      <c r="E31" s="22">
+        <v>39076.550000000003</v>
+      </c>
+      <c r="F31" s="20">
+        <v>7.96</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="I31" s="21">
+        <v>25.02</v>
+      </c>
+      <c r="J31" s="21">
+        <v>9.0500000000000007</v>
+      </c>
       <c r="K31" s="18">
-        <v>14.46</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="D32" s="17">
+        <v>38.57</v>
+      </c>
+      <c r="E32" s="47">
+        <v>22380</v>
+      </c>
+      <c r="F32" s="20">
+        <v>5</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="I32" s="21">
+        <v>29.48</v>
+      </c>
+      <c r="J32" s="21">
+        <v>24.42</v>
+      </c>
       <c r="K32" s="18">
-        <v>16.190000000000001</v>
+        <v>19.22</v>
       </c>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="19"/>
@@ -3087,20 +3195,20 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="18">
-        <v>19.7</v>
+        <v>19.62</v>
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>415</v>
+        <v>132</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>416</v>
+        <v>133</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="19"/>
@@ -3110,17 +3218,17 @@
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="18">
-        <v>19.22</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>101</v>
@@ -3133,17 +3241,17 @@
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="18">
-        <v>19.62</v>
+        <v>20.23</v>
       </c>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>101</v>
@@ -3156,17 +3264,17 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="18">
-        <v>16.100000000000001</v>
+        <v>11.77</v>
       </c>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>101</v>
@@ -3179,17 +3287,17 @@
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="18">
-        <v>20.23</v>
+        <v>12.8</v>
       </c>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>101</v>
@@ -3202,17 +3310,17 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="18">
-        <v>11.77</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>101</v>
@@ -3225,17 +3333,17 @@
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="18">
-        <v>12.8</v>
+        <v>10.31</v>
       </c>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>101</v>
@@ -3248,17 +3356,17 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="18">
-        <v>10.039999999999999</v>
+        <v>7.16</v>
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>101</v>
@@ -3271,17 +3379,17 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="18">
-        <v>10.31</v>
+        <v>17.8</v>
       </c>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>101</v>
@@ -3294,17 +3402,17 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="18">
-        <v>7.16</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>101</v>
@@ -3317,17 +3425,17 @@
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="18">
-        <v>17.8</v>
+        <v>10.79</v>
       </c>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>101</v>
@@ -3340,20 +3448,20 @@
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="18">
-        <v>16.079999999999998</v>
+        <v>12.61</v>
       </c>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>333</v>
+        <v>67</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>334</v>
+        <v>68</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="19"/>
@@ -3363,20 +3471,20 @@
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="18">
-        <v>10.79</v>
+        <v>14.66</v>
       </c>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>359</v>
+        <v>165</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="19"/>
@@ -3386,17 +3494,17 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="18">
-        <v>12.61</v>
+        <v>17.16</v>
       </c>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>67</v>
+        <v>333</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>68</v>
+        <v>334</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>69</v>
@@ -3409,20 +3517,20 @@
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="18">
-        <v>14.66</v>
+        <v>16.23</v>
       </c>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
     </row>
     <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
-        <v>165</v>
+        <v>381</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>166</v>
+        <v>382</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>69</v>
+        <v>383</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="19"/>
@@ -3432,20 +3540,20 @@
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="18">
-        <v>17.16</v>
+        <v>12.96</v>
       </c>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
     <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
-        <v>335</v>
+        <v>145</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="19"/>
@@ -3455,20 +3563,20 @@
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="18">
-        <v>16.23</v>
+        <v>17.48</v>
       </c>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>385</v>
+        <v>147</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="19"/>
@@ -3478,149 +3586,177 @@
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
       <c r="K50" s="18">
-        <v>12.96</v>
+        <v>12.82</v>
       </c>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="17">
+        <v>30.57</v>
+      </c>
+      <c r="E51" s="22">
+        <v>26945.98</v>
+      </c>
+      <c r="F51" s="20">
+        <v>9.02</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="I51" s="21">
+        <v>29.2</v>
+      </c>
+      <c r="J51" s="21">
+        <v>24.45</v>
+      </c>
       <c r="K51" s="18">
-        <v>17.48</v>
+        <v>14.52</v>
       </c>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="D52" s="17">
+        <v>31.48</v>
+      </c>
+      <c r="E52" s="22">
+        <v>76626.399999999994</v>
+      </c>
+      <c r="F52" s="20">
+        <v>9.81</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="I52" s="21">
+        <v>17.98</v>
+      </c>
+      <c r="J52" s="21">
+        <v>11.92</v>
+      </c>
       <c r="K52" s="18">
-        <v>12.82</v>
+        <v>12.48</v>
       </c>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>48</v>
+        <v>360</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="17">
-        <v>30.57</v>
-      </c>
-      <c r="E53" s="22">
-        <v>26945.98</v>
+        <v>33.19</v>
+      </c>
+      <c r="E53" s="47">
+        <v>33000</v>
       </c>
       <c r="F53" s="20">
-        <v>9.02</v>
+        <v>8.44</v>
       </c>
       <c r="G53" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="H53" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="H53" s="44" t="s">
-        <v>451</v>
-      </c>
       <c r="I53" s="21">
-        <v>29.2</v>
+        <v>34.72</v>
       </c>
       <c r="J53" s="21">
-        <v>24.45</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="K53" s="18">
-        <v>14.52</v>
+        <v>13.47</v>
       </c>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
     </row>
     <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="17">
-        <v>31.48</v>
-      </c>
-      <c r="E54" s="22">
-        <v>76626.399999999994</v>
+        <v>58.52</v>
+      </c>
+      <c r="E54" s="47">
+        <v>46760</v>
       </c>
       <c r="F54" s="20">
-        <v>9.81</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="G54" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="H54" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="H54" s="44" t="s">
-        <v>453</v>
-      </c>
       <c r="I54" s="21">
-        <v>23.79</v>
+        <v>34.96</v>
       </c>
       <c r="J54" s="21">
-        <v>15.77</v>
+        <v>23.18</v>
       </c>
       <c r="K54" s="18">
-        <v>12.48</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
     </row>
     <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="17">
-        <v>33.19</v>
-      </c>
-      <c r="E55" s="47">
-        <v>33000</v>
+        <v>51.68</v>
+      </c>
+      <c r="E55" s="22">
+        <v>73581.09</v>
       </c>
       <c r="F55" s="20">
-        <v>8.44</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G55" s="40" t="s">
         <v>454</v>
@@ -3629,97 +3765,69 @@
         <v>455</v>
       </c>
       <c r="I55" s="21">
-        <v>34.72</v>
+        <v>58.02</v>
       </c>
       <c r="J55" s="21">
-        <v>4.2699999999999996</v>
+        <v>9.89</v>
       </c>
       <c r="K55" s="18">
-        <v>13.47</v>
+        <v>13.56</v>
       </c>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="17">
-        <v>58.52</v>
-      </c>
-      <c r="E56" s="47">
-        <v>46760</v>
-      </c>
-      <c r="F56" s="20">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="H56" s="44" t="s">
-        <v>457</v>
-      </c>
-      <c r="I56" s="21">
-        <v>34.96</v>
-      </c>
-      <c r="J56" s="21">
-        <v>23.18</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
       <c r="K56" s="18">
-        <v>17.260000000000002</v>
+        <v>14.49</v>
       </c>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
     </row>
     <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
-        <v>406</v>
+        <v>181</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>407</v>
+        <v>182</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="17">
-        <v>51.68</v>
-      </c>
-      <c r="E57" s="22">
-        <v>73581.09</v>
-      </c>
-      <c r="F57" s="20">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="I57" s="21">
-        <v>58.02</v>
-      </c>
-      <c r="J57" s="21">
-        <v>9.89</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
       <c r="K57" s="18">
-        <v>13.56</v>
+        <v>13.3</v>
       </c>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>91</v>
@@ -3732,17 +3840,17 @@
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
       <c r="K58" s="18">
-        <v>14.49</v>
+        <v>11.64</v>
       </c>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>91</v>
@@ -3755,17 +3863,17 @@
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
       <c r="K59" s="18">
-        <v>13.3</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
     </row>
     <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>91</v>
@@ -3778,20 +3886,20 @@
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
       <c r="K60" s="18">
-        <v>11.64</v>
+        <v>10.35</v>
       </c>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
     </row>
     <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="19"/>
@@ -3801,473 +3909,473 @@
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
       <c r="K61" s="18">
-        <v>20.170000000000002</v>
+        <v>13.2</v>
       </c>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+        <v>241</v>
+      </c>
+      <c r="D62" s="17">
+        <v>58.76</v>
+      </c>
+      <c r="E62" s="22">
+        <v>38914.629999999997</v>
+      </c>
+      <c r="F62" s="20">
+        <v>4.84</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="H62" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="I62" s="21">
+        <v>42.96</v>
+      </c>
+      <c r="J62" s="21">
+        <v>8.6199999999999992</v>
+      </c>
       <c r="K62" s="18">
-        <v>10.35</v>
+        <v>16.68</v>
       </c>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="D63" s="17">
+        <v>48.97</v>
+      </c>
+      <c r="E63" s="47">
+        <v>42210</v>
+      </c>
+      <c r="F63" s="20">
+        <v>8.52</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="H63" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="I63" s="21">
+        <v>24.09</v>
+      </c>
+      <c r="J63" s="21">
+        <v>19</v>
+      </c>
       <c r="K63" s="18">
-        <v>13.2</v>
+        <v>14.83</v>
       </c>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
     </row>
     <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
-        <v>267</v>
+        <v>375</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="D64" s="17">
-        <v>58.76</v>
+        <v>62.09</v>
       </c>
       <c r="E64" s="22">
-        <v>38914.629999999997</v>
+        <v>104699.35</v>
       </c>
       <c r="F64" s="20">
-        <v>4.84</v>
+        <v>6.46</v>
       </c>
       <c r="G64" s="40" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="I64" s="21">
-        <v>20.53</v>
+        <v>35.78</v>
       </c>
       <c r="J64" s="21">
-        <v>4.12</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K64" s="18">
-        <v>16.68</v>
+        <v>5.96</v>
       </c>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
     </row>
     <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
-        <v>275</v>
+        <v>384</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>276</v>
+        <v>385</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D65" s="17">
-        <v>48.97</v>
-      </c>
-      <c r="E65" s="47">
-        <v>42210</v>
+        <v>50.96</v>
+      </c>
+      <c r="E65" s="22">
+        <v>40088.199999999997</v>
       </c>
       <c r="F65" s="20">
-        <v>8.52</v>
+        <v>8.58</v>
       </c>
       <c r="G65" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="H65" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="H65" s="44" t="s">
-        <v>463</v>
-      </c>
       <c r="I65" s="21">
-        <v>24.09</v>
+        <v>19.59</v>
       </c>
       <c r="J65" s="21">
-        <v>19</v>
+        <v>4.91</v>
       </c>
       <c r="K65" s="18">
-        <v>14.83</v>
+        <v>14.48</v>
       </c>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
     </row>
     <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>134</v>
       </c>
       <c r="D66" s="17">
-        <v>62.09</v>
+        <v>30.51</v>
       </c>
       <c r="E66" s="22">
-        <v>104699.35</v>
+        <v>37624.03</v>
       </c>
       <c r="F66" s="20">
-        <v>6.46</v>
+        <v>7.47</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="I66" s="21">
-        <v>35.78</v>
+        <v>30</v>
       </c>
       <c r="J66" s="21">
-        <v>4.3499999999999996</v>
+        <v>7.71</v>
       </c>
       <c r="K66" s="18">
-        <v>5.96</v>
+        <v>12.41</v>
       </c>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>134</v>
       </c>
       <c r="D67" s="17">
-        <v>50.96</v>
+        <v>34.11</v>
       </c>
       <c r="E67" s="22">
-        <v>40088.199999999997</v>
+        <v>61758.58</v>
       </c>
       <c r="F67" s="20">
-        <v>8.58</v>
+        <v>5.86</v>
       </c>
       <c r="G67" s="40" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="H67" s="44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I67" s="21">
-        <v>19.59</v>
+        <v>19.66</v>
       </c>
       <c r="J67" s="21">
-        <v>4.91</v>
+        <v>7.9</v>
       </c>
       <c r="K67" s="18">
-        <v>14.48</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
     </row>
     <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>389</v>
+        <v>39</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="D68" s="17">
-        <v>30.51</v>
+        <v>56.94</v>
       </c>
       <c r="E68" s="22">
-        <v>37624.03</v>
+        <v>26967.37</v>
       </c>
       <c r="F68" s="20">
-        <v>7.47</v>
+        <v>6.71</v>
       </c>
       <c r="G68" s="40" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="I68" s="21">
-        <v>30</v>
+        <v>37.19</v>
       </c>
       <c r="J68" s="21">
-        <v>7.71</v>
+        <v>14.36</v>
       </c>
       <c r="K68" s="18">
-        <v>12.41</v>
+        <v>12.9</v>
       </c>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
-        <v>392</v>
+        <v>116</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>393</v>
+        <v>117</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="D69" s="17">
-        <v>34.11</v>
+        <v>58.81</v>
       </c>
       <c r="E69" s="22">
-        <v>61758.58</v>
+        <v>30846.400000000001</v>
       </c>
       <c r="F69" s="20">
-        <v>5.86</v>
+        <v>9.16</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="H69" s="44" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="I69" s="21">
-        <v>19.760000000000002</v>
+        <v>42.67</v>
       </c>
       <c r="J69" s="21">
-        <v>7.93</v>
+        <v>5.87</v>
       </c>
       <c r="K69" s="18">
-        <v>9.1199999999999992</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
     </row>
     <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D70" s="17">
-        <v>56.94</v>
+        <v>44.1</v>
       </c>
       <c r="E70" s="22">
-        <v>26967.37</v>
+        <v>52691.31</v>
       </c>
       <c r="F70" s="20">
-        <v>6.71</v>
+        <v>7.81</v>
       </c>
       <c r="G70" s="40" t="s">
         <v>437</v>
       </c>
       <c r="H70" s="44" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="I70" s="21">
-        <v>37.19</v>
+        <v>32.33</v>
       </c>
       <c r="J70" s="21">
-        <v>14.36</v>
+        <v>7.01</v>
       </c>
       <c r="K70" s="18">
-        <v>12.9</v>
+        <v>11.98</v>
       </c>
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
     </row>
     <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D71" s="17">
-        <v>58.81</v>
+        <v>75.33</v>
       </c>
       <c r="E71" s="22">
-        <v>30846.400000000001</v>
+        <v>42268.52</v>
       </c>
       <c r="F71" s="20">
-        <v>9.16</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="G71" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="H71" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="H71" s="44" t="s">
-        <v>440</v>
-      </c>
       <c r="I71" s="21">
-        <v>46.87</v>
+        <v>15.73</v>
       </c>
       <c r="J71" s="21">
-        <v>3.92</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K71" s="18">
-        <v>19.149999999999999</v>
+        <v>12.81</v>
       </c>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>56</v>
+        <v>372</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D72" s="17">
-        <v>44.1</v>
+        <v>36.61</v>
       </c>
       <c r="E72" s="22">
-        <v>52691.31</v>
+        <v>17950.97</v>
       </c>
       <c r="F72" s="20">
-        <v>7.81</v>
+        <v>6.14</v>
       </c>
       <c r="G72" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="H72" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="H72" s="44" t="s">
-        <v>433</v>
-      </c>
       <c r="I72" s="21">
-        <v>32.340000000000003</v>
+        <v>51.47</v>
       </c>
       <c r="J72" s="21">
-        <v>7.01</v>
+        <v>3.38</v>
       </c>
       <c r="K72" s="18">
-        <v>11.98</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" s="17">
-        <v>75.33</v>
-      </c>
-      <c r="E73" s="22">
-        <v>42268.52</v>
-      </c>
-      <c r="F73" s="20">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="H73" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="I73" s="21">
-        <v>15.73</v>
-      </c>
-      <c r="J73" s="21">
-        <v>9.1999999999999993</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
       <c r="K73" s="18">
-        <v>12.81</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
-        <v>373</v>
+        <v>95</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="17">
-        <v>36.61</v>
-      </c>
-      <c r="E74" s="22">
-        <v>17950.97</v>
-      </c>
-      <c r="F74" s="20">
-        <v>6.14</v>
-      </c>
-      <c r="G74" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="H74" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="I74" s="21">
-        <v>51.94</v>
-      </c>
-      <c r="J74" s="21">
-        <v>3.42</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
       <c r="K74" s="18">
-        <v>17.920000000000002</v>
+        <v>14.5</v>
       </c>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>412</v>
+        <v>97</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="19"/>
@@ -4277,17 +4385,17 @@
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
       <c r="K75" s="18">
-        <v>9.1300000000000008</v>
+        <v>10.34</v>
       </c>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
     </row>
     <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>97</v>
@@ -4300,17 +4408,17 @@
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
       <c r="K76" s="18">
-        <v>14.5</v>
+        <v>13.7</v>
       </c>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
     </row>
     <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>112</v>
+        <v>336</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>97</v>
@@ -4323,20 +4431,20 @@
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
       <c r="K77" s="18">
-        <v>10.34</v>
+        <v>14.14</v>
       </c>
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
     </row>
     <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="19"/>
@@ -4346,20 +4454,20 @@
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
       <c r="K78" s="18">
-        <v>13.7</v>
+        <v>15.63</v>
       </c>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
     <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>338</v>
+        <v>168</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="19"/>
@@ -4369,20 +4477,20 @@
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
       <c r="K79" s="18">
-        <v>14.14</v>
+        <v>12.95</v>
       </c>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
     </row>
     <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="19"/>
@@ -4392,20 +4500,20 @@
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
       <c r="K80" s="18">
-        <v>15.63</v>
+        <v>10.82</v>
       </c>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
     </row>
     <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="19"/>
@@ -4415,17 +4523,17 @@
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
       <c r="K81" s="18">
-        <v>12.95</v>
+        <v>12.46</v>
       </c>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
     </row>
     <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
-        <v>150</v>
+        <v>355</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>152</v>
@@ -4438,17 +4546,17 @@
       <c r="I82" s="21"/>
       <c r="J82" s="21"/>
       <c r="K82" s="18">
-        <v>10.82</v>
+        <v>13.52</v>
       </c>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
     </row>
     <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
-        <v>237</v>
+        <v>413</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>238</v>
+        <v>414</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>152</v>
@@ -4461,20 +4569,20 @@
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
       <c r="K83" s="18">
-        <v>12.46</v>
+        <v>16.09</v>
       </c>
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
     </row>
     <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="19"/>
@@ -4484,20 +4592,20 @@
       <c r="I84" s="21"/>
       <c r="J84" s="21"/>
       <c r="K84" s="18">
-        <v>13.52</v>
+        <v>14.51</v>
       </c>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
     </row>
     <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>417</v>
+        <v>173</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>418</v>
+        <v>174</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="19"/>
@@ -4507,17 +4615,17 @@
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
       <c r="K85" s="18">
-        <v>16.09</v>
+        <v>16.28</v>
       </c>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
     </row>
     <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>80</v>
@@ -4530,17 +4638,17 @@
       <c r="I86" s="21"/>
       <c r="J86" s="21"/>
       <c r="K86" s="18">
-        <v>14.51</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
     </row>
     <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>80</v>
@@ -4553,17 +4661,17 @@
       <c r="I87" s="21"/>
       <c r="J87" s="21"/>
       <c r="K87" s="18">
-        <v>16.28</v>
+        <v>11.92</v>
       </c>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
     </row>
     <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>80</v>
@@ -4576,20 +4684,20 @@
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
       <c r="K88" s="18">
-        <v>17.600000000000001</v>
+        <v>17.03</v>
       </c>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
     </row>
     <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="19"/>
@@ -4599,20 +4707,20 @@
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
       <c r="K89" s="18">
-        <v>11.92</v>
+        <v>17.25</v>
       </c>
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
     </row>
     <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="16" t="s">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="19"/>
@@ -4622,17 +4730,17 @@
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
       <c r="K90" s="18">
-        <v>17.03</v>
+        <v>12.77</v>
       </c>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
     </row>
     <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>138</v>
+        <v>317</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>140</v>
@@ -4645,20 +4753,20 @@
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
       <c r="K91" s="18">
-        <v>17.25</v>
+        <v>16.41</v>
       </c>
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="19"/>
@@ -4668,20 +4776,20 @@
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
       <c r="K92" s="18">
-        <v>12.77</v>
+        <v>13.64</v>
       </c>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
-        <v>319</v>
+        <v>32</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>320</v>
+        <v>33</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="19"/>
@@ -4691,20 +4799,20 @@
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
       <c r="K93" s="18">
-        <v>16.41</v>
+        <v>13.33</v>
       </c>
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
-        <v>29</v>
+        <v>392</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>30</v>
+        <v>393</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="19"/>
@@ -4714,20 +4822,20 @@
       <c r="I94" s="21"/>
       <c r="J94" s="21"/>
       <c r="K94" s="18">
-        <v>13.64</v>
+        <v>19.21</v>
       </c>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="19"/>
@@ -4737,20 +4845,20 @@
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
       <c r="K95" s="18">
-        <v>13.33</v>
+        <v>18.12</v>
       </c>
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="19"/>
@@ -4760,17 +4868,17 @@
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
       <c r="K96" s="18">
-        <v>19.21</v>
+        <v>14.2</v>
       </c>
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
     </row>
     <row r="97" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>260</v>
@@ -4783,17 +4891,17 @@
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
       <c r="K97" s="18">
-        <v>18.12</v>
+        <v>14.33</v>
       </c>
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>260</v>
@@ -4806,17 +4914,17 @@
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
       <c r="K98" s="18">
-        <v>14.2</v>
+        <v>18.66</v>
       </c>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
     </row>
     <row r="99" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>260</v>
@@ -4829,20 +4937,20 @@
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
       <c r="K99" s="18">
-        <v>14.33</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="19"/>
@@ -4852,20 +4960,20 @@
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
       <c r="K100" s="18">
-        <v>18.66</v>
+        <v>20.25</v>
       </c>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
     </row>
     <row r="101" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="19"/>
@@ -4875,17 +4983,17 @@
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
       <c r="K101" s="18">
-        <v>18.600000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
     </row>
     <row r="102" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>227</v>
@@ -4898,20 +5006,20 @@
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
       <c r="K102" s="18">
-        <v>20.25</v>
+        <v>14.62</v>
       </c>
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
     </row>
     <row r="103" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="19"/>
@@ -4921,20 +5029,20 @@
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
       <c r="K103" s="18">
-        <v>11.1</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
     </row>
     <row r="104" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="19"/>
@@ -4944,17 +5052,17 @@
       <c r="I104" s="21"/>
       <c r="J104" s="21"/>
       <c r="K104" s="18">
-        <v>14.62</v>
+        <v>15.65</v>
       </c>
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="16" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>110</v>
@@ -4967,17 +5075,17 @@
       <c r="I105" s="21"/>
       <c r="J105" s="21"/>
       <c r="K105" s="18">
-        <v>8.9600000000000009</v>
+        <v>12.76</v>
       </c>
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
     </row>
     <row r="106" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>110</v>
@@ -4990,17 +5098,17 @@
       <c r="I106" s="21"/>
       <c r="J106" s="21"/>
       <c r="K106" s="18">
-        <v>15.65</v>
+        <v>12.56</v>
       </c>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
     </row>
     <row r="107" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="16" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>110</v>
@@ -5013,17 +5121,17 @@
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
       <c r="K107" s="18">
-        <v>12.76</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
     </row>
     <row r="108" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="16" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>110</v>
@@ -5036,17 +5144,17 @@
       <c r="I108" s="21"/>
       <c r="J108" s="21"/>
       <c r="K108" s="18">
-        <v>12.56</v>
+        <v>6.58</v>
       </c>
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
     </row>
     <row r="109" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="16" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>110</v>
@@ -5059,17 +5167,17 @@
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
       <c r="K109" s="18">
-        <v>8.0299999999999994</v>
+        <v>9.99</v>
       </c>
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
     </row>
     <row r="110" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="16" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>110</v>
@@ -5082,17 +5190,17 @@
       <c r="I110" s="21"/>
       <c r="J110" s="21"/>
       <c r="K110" s="18">
-        <v>6.58</v>
+        <v>19.93</v>
       </c>
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
     </row>
     <row r="111" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="16" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>110</v>
@@ -5105,17 +5213,17 @@
       <c r="I111" s="21"/>
       <c r="J111" s="21"/>
       <c r="K111" s="18">
-        <v>9.99</v>
+        <v>9.69</v>
       </c>
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
     </row>
     <row r="112" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="16" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>110</v>
@@ -5128,17 +5236,17 @@
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
       <c r="K112" s="18">
-        <v>19.93</v>
+        <v>19.61</v>
       </c>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
     </row>
     <row r="113" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="16" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>110</v>
@@ -5151,17 +5259,17 @@
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
       <c r="K113" s="18">
-        <v>9.69</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
     </row>
     <row r="114" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="16" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>110</v>
@@ -5174,17 +5282,17 @@
       <c r="I114" s="21"/>
       <c r="J114" s="21"/>
       <c r="K114" s="18">
-        <v>19.61</v>
+        <v>17.2</v>
       </c>
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
     </row>
     <row r="115" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="16" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>110</v>
@@ -5197,20 +5305,20 @@
       <c r="I115" s="21"/>
       <c r="J115" s="21"/>
       <c r="K115" s="18">
-        <v>8.1199999999999992</v>
+        <v>10.6</v>
       </c>
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
     </row>
     <row r="116" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="16" t="s">
-        <v>315</v>
+        <v>102</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="19"/>
@@ -5220,20 +5328,20 @@
       <c r="I116" s="21"/>
       <c r="J116" s="21"/>
       <c r="K116" s="18">
-        <v>17.2</v>
+        <v>7.39</v>
       </c>
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
     </row>
     <row r="117" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="16" t="s">
-        <v>402</v>
+        <v>295</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="19"/>
@@ -5243,20 +5351,20 @@
       <c r="I117" s="21"/>
       <c r="J117" s="21"/>
       <c r="K117" s="18">
-        <v>10.6</v>
+        <v>13.4</v>
       </c>
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
     </row>
     <row r="118" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="16" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="19"/>
@@ -5266,20 +5374,20 @@
       <c r="I118" s="21"/>
       <c r="J118" s="21"/>
       <c r="K118" s="18">
-        <v>7.39</v>
+        <v>13.98</v>
       </c>
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
     </row>
     <row r="119" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="16" t="s">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="19"/>
@@ -5289,17 +5397,17 @@
       <c r="I119" s="21"/>
       <c r="J119" s="21"/>
       <c r="K119" s="18">
-        <v>13.4</v>
+        <v>14.69</v>
       </c>
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
     </row>
     <row r="120" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="16" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>122</v>
@@ -5312,17 +5420,17 @@
       <c r="I120" s="21"/>
       <c r="J120" s="21"/>
       <c r="K120" s="18">
-        <v>13.98</v>
+        <v>15.42</v>
       </c>
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
     </row>
     <row r="121" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="16" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>122</v>
@@ -5335,17 +5443,17 @@
       <c r="I121" s="21"/>
       <c r="J121" s="21"/>
       <c r="K121" s="18">
-        <v>14.69</v>
+        <v>12.97</v>
       </c>
       <c r="L121" s="18"/>
       <c r="M121" s="18"/>
     </row>
     <row r="122" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="16" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>122</v>
@@ -5358,17 +5466,17 @@
       <c r="I122" s="21"/>
       <c r="J122" s="21"/>
       <c r="K122" s="18">
-        <v>15.42</v>
+        <v>13.13</v>
       </c>
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
     </row>
     <row r="123" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="16" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>122</v>
@@ -5381,20 +5489,20 @@
       <c r="I123" s="21"/>
       <c r="J123" s="21"/>
       <c r="K123" s="18">
-        <v>12.97</v>
+        <v>15.92</v>
       </c>
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="16" t="s">
-        <v>306</v>
+        <v>64</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="19"/>
@@ -5404,20 +5512,20 @@
       <c r="I124" s="21"/>
       <c r="J124" s="21"/>
       <c r="K124" s="18">
-        <v>13.13</v>
+        <v>20.18</v>
       </c>
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
     </row>
     <row r="125" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="16" t="s">
-        <v>329</v>
+        <v>183</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>330</v>
+        <v>184</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="19"/>
@@ -5427,20 +5535,20 @@
       <c r="I125" s="21"/>
       <c r="J125" s="21"/>
       <c r="K125" s="18">
-        <v>15.92</v>
+        <v>13.88</v>
       </c>
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="16" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="19"/>
@@ -5450,20 +5558,20 @@
       <c r="I126" s="21"/>
       <c r="J126" s="21"/>
       <c r="K126" s="18">
-        <v>20.18</v>
+        <v>7.83</v>
       </c>
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
     </row>
     <row r="127" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="16" t="s">
-        <v>183</v>
+        <v>341</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="19"/>
@@ -5473,20 +5581,20 @@
       <c r="I127" s="21"/>
       <c r="J127" s="21"/>
       <c r="K127" s="18">
-        <v>13.88</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
     </row>
     <row r="128" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="16" t="s">
-        <v>323</v>
+        <v>26</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="D128" s="17"/>
       <c r="E128" s="19"/>
@@ -5496,20 +5604,20 @@
       <c r="I128" s="21"/>
       <c r="J128" s="21"/>
       <c r="K128" s="18">
-        <v>7.83</v>
+        <v>17.16</v>
       </c>
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="16" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="19"/>
@@ -5519,20 +5627,20 @@
       <c r="I129" s="21"/>
       <c r="J129" s="21"/>
       <c r="K129" s="18">
-        <v>8.1999999999999993</v>
+        <v>15.93</v>
       </c>
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
     </row>
     <row r="130" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="16" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="19"/>
@@ -5542,20 +5650,20 @@
       <c r="I130" s="21"/>
       <c r="J130" s="21"/>
       <c r="K130" s="18">
-        <v>17.16</v>
+        <v>11.65</v>
       </c>
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="16" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="19"/>
@@ -5565,20 +5673,20 @@
       <c r="I131" s="21"/>
       <c r="J131" s="21"/>
       <c r="K131" s="18">
-        <v>15.93</v>
+        <v>10.71</v>
       </c>
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
     </row>
     <row r="132" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="16" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D132" s="17"/>
       <c r="E132" s="19"/>
@@ -5588,17 +5696,17 @@
       <c r="I132" s="21"/>
       <c r="J132" s="21"/>
       <c r="K132" s="18">
-        <v>11.65</v>
+        <v>11.29</v>
       </c>
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
     </row>
     <row r="133" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="16" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>75</v>
@@ -5611,17 +5719,17 @@
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
       <c r="K133" s="18">
-        <v>10.71</v>
+        <v>14.9</v>
       </c>
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
     </row>
     <row r="134" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="16" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>75</v>
@@ -5634,17 +5742,17 @@
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
       <c r="K134" s="18">
-        <v>11.29</v>
+        <v>13.61</v>
       </c>
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
     </row>
     <row r="135" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="16" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>75</v>
@@ -5657,20 +5765,20 @@
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
       <c r="K135" s="18">
-        <v>14.9</v>
+        <v>15.56</v>
       </c>
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
     </row>
     <row r="136" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="16" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D136" s="17"/>
       <c r="E136" s="19"/>
@@ -5680,20 +5788,20 @@
       <c r="I136" s="21"/>
       <c r="J136" s="21"/>
       <c r="K136" s="18">
-        <v>13.61</v>
+        <v>6.97</v>
       </c>
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
     </row>
     <row r="137" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="16" t="s">
-        <v>408</v>
+        <v>87</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>409</v>
+        <v>88</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="19"/>
@@ -5703,20 +5811,20 @@
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
       <c r="K137" s="18">
-        <v>15.56</v>
+        <v>11.66</v>
       </c>
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
     </row>
     <row r="138" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="16" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="19"/>
@@ -5726,20 +5834,20 @@
       <c r="I138" s="21"/>
       <c r="J138" s="21"/>
       <c r="K138" s="18">
-        <v>6.97</v>
+        <v>7.76</v>
       </c>
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
     </row>
     <row r="139" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="16" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="19"/>
@@ -5749,17 +5857,17 @@
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
       <c r="K139" s="18">
-        <v>11.66</v>
+        <v>15.55</v>
       </c>
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
     </row>
     <row r="140" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="16" t="s">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>46</v>
@@ -5772,17 +5880,17 @@
       <c r="I140" s="21"/>
       <c r="J140" s="21"/>
       <c r="K140" s="18">
-        <v>7.76</v>
+        <v>10.24</v>
       </c>
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
     </row>
     <row r="141" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="16" t="s">
-        <v>53</v>
+        <v>377</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>46</v>
@@ -5795,20 +5903,20 @@
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
       <c r="K141" s="18">
-        <v>15.55</v>
+        <v>12.49</v>
       </c>
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
     </row>
     <row r="142" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="16" t="s">
-        <v>371</v>
+        <v>92</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>372</v>
+        <v>93</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="19"/>
@@ -5818,20 +5926,20 @@
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
       <c r="K142" s="18">
-        <v>10.24</v>
+        <v>18.23</v>
       </c>
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="16" t="s">
-        <v>379</v>
+        <v>153</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="19"/>
@@ -5841,20 +5949,20 @@
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
       <c r="K143" s="18">
-        <v>12.49</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
     </row>
     <row r="144" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="16" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="19"/>
@@ -5864,20 +5972,20 @@
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
       <c r="K144" s="18">
-        <v>18.23</v>
+        <v>12.88</v>
       </c>
       <c r="L144" s="18"/>
       <c r="M144" s="18"/>
     </row>
     <row r="145" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="19"/>
@@ -5887,17 +5995,17 @@
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
       <c r="K145" s="18">
-        <v>20.149999999999999</v>
+        <v>14.45</v>
       </c>
       <c r="L145" s="18"/>
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="16" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>72</v>
@@ -5910,17 +6018,17 @@
       <c r="I146" s="21"/>
       <c r="J146" s="21"/>
       <c r="K146" s="18">
-        <v>12.88</v>
+        <v>8.41</v>
       </c>
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
     </row>
     <row r="147" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>72</v>
@@ -5933,17 +6041,17 @@
       <c r="I147" s="21"/>
       <c r="J147" s="21"/>
       <c r="K147" s="18">
-        <v>14.45</v>
+        <v>14.18</v>
       </c>
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
     </row>
     <row r="148" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="16" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>72</v>
@@ -5956,17 +6064,17 @@
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
       <c r="K148" s="18">
-        <v>8.41</v>
+        <v>16.7</v>
       </c>
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
     </row>
     <row r="149" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="16" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>72</v>
@@ -5979,17 +6087,17 @@
       <c r="I149" s="21"/>
       <c r="J149" s="21"/>
       <c r="K149" s="18">
-        <v>14.18</v>
+        <v>11.7</v>
       </c>
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
     </row>
     <row r="150" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="16" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>72</v>
@@ -6002,17 +6110,17 @@
       <c r="I150" s="21"/>
       <c r="J150" s="21"/>
       <c r="K150" s="18">
-        <v>16.7</v>
+        <v>15.64</v>
       </c>
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
     </row>
     <row r="151" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="16" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>72</v>
@@ -6025,17 +6133,17 @@
       <c r="I151" s="21"/>
       <c r="J151" s="21"/>
       <c r="K151" s="18">
-        <v>11.7</v>
+        <v>9.57</v>
       </c>
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="16" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>72</v>
@@ -6048,17 +6156,17 @@
       <c r="I152" s="21"/>
       <c r="J152" s="21"/>
       <c r="K152" s="18">
-        <v>15.64</v>
+        <v>11.16</v>
       </c>
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
     </row>
     <row r="153" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="16" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>72</v>
@@ -6071,17 +6179,17 @@
       <c r="I153" s="21"/>
       <c r="J153" s="21"/>
       <c r="K153" s="18">
-        <v>9.57</v>
+        <v>17.37</v>
       </c>
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="16" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>72</v>
@@ -6094,17 +6202,17 @@
       <c r="I154" s="21"/>
       <c r="J154" s="21"/>
       <c r="K154" s="18">
-        <v>11.16</v>
+        <v>7.07</v>
       </c>
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
     </row>
     <row r="155" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="16" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>72</v>
@@ -6117,17 +6225,17 @@
       <c r="I155" s="21"/>
       <c r="J155" s="21"/>
       <c r="K155" s="18">
-        <v>17.37</v>
+        <v>10.07</v>
       </c>
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
     </row>
     <row r="156" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="16" t="s">
-        <v>271</v>
+        <v>409</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>272</v>
+        <v>410</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>72</v>
@@ -6140,177 +6248,177 @@
       <c r="I156" s="21"/>
       <c r="J156" s="21"/>
       <c r="K156" s="18">
-        <v>7.07</v>
+        <v>14.73</v>
       </c>
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="16" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>328</v>
+        <v>51</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="40"/>
-      <c r="H157" s="44"/>
-      <c r="I157" s="21"/>
-      <c r="J157" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="D157" s="17">
+        <v>31.33</v>
+      </c>
+      <c r="E157" s="22">
+        <v>108055.17</v>
+      </c>
+      <c r="F157" s="20">
+        <v>6.23</v>
+      </c>
+      <c r="G157" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="H157" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="I157" s="21">
+        <v>15</v>
+      </c>
+      <c r="J157" s="21">
+        <v>14.43</v>
+      </c>
       <c r="K157" s="18">
-        <v>10.07</v>
+        <v>8.32</v>
       </c>
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
     </row>
     <row r="158" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="16" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="40"/>
-      <c r="H158" s="44"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="D158" s="17">
+        <v>30.26</v>
+      </c>
+      <c r="E158" s="22">
+        <v>90569.66</v>
+      </c>
+      <c r="F158" s="20">
+        <v>6.57</v>
+      </c>
+      <c r="G158" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="H158" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="I158" s="21">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="J158" s="21">
+        <v>4.47</v>
+      </c>
       <c r="K158" s="18">
-        <v>14.73</v>
+        <v>7.54</v>
       </c>
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="16" t="s">
-        <v>50</v>
+        <v>394</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>51</v>
+        <v>395</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D159" s="17">
-        <v>31.33</v>
+        <v>38.35</v>
       </c>
       <c r="E159" s="22">
-        <v>108055.17</v>
+        <v>71789.210000000006</v>
       </c>
       <c r="F159" s="20">
-        <v>6.23</v>
-      </c>
-      <c r="G159" s="40" t="s">
-        <v>435</v>
+        <v>9.59</v>
+      </c>
+      <c r="G159" s="40">
+        <v>69.87</v>
       </c>
       <c r="H159" s="44" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="I159" s="21">
-        <v>16.3</v>
+        <v>18.97</v>
       </c>
       <c r="J159" s="21">
-        <v>8.01</v>
+        <v>15.32</v>
       </c>
       <c r="K159" s="18">
-        <v>8.32</v>
+        <v>6.17</v>
       </c>
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
     </row>
     <row r="160" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="16" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D160" s="17">
-        <v>30.26</v>
-      </c>
-      <c r="E160" s="22">
-        <v>90569.66</v>
-      </c>
-      <c r="F160" s="20">
-        <v>6.57</v>
-      </c>
-      <c r="G160" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="H160" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="I160" s="21">
-        <v>37.01</v>
-      </c>
-      <c r="J160" s="21">
-        <v>2.85</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D160" s="17"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="40"/>
+      <c r="H160" s="44"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
       <c r="K160" s="18">
-        <v>7.54</v>
+        <v>12.74</v>
       </c>
       <c r="L160" s="18"/>
       <c r="M160" s="18"/>
     </row>
     <row r="161" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="16" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D161" s="17">
-        <v>38.35</v>
-      </c>
-      <c r="E161" s="22">
-        <v>71789.210000000006</v>
-      </c>
-      <c r="F161" s="20">
-        <v>9.59</v>
-      </c>
-      <c r="G161" s="40">
-        <v>69.87</v>
-      </c>
-      <c r="H161" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="I161" s="21">
-        <v>18.97</v>
-      </c>
-      <c r="J161" s="21">
-        <v>15.32</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D161" s="17"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="40"/>
+      <c r="H161" s="44"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
       <c r="K161" s="18">
-        <v>6.17</v>
+        <v>13.78</v>
       </c>
       <c r="L161" s="18"/>
       <c r="M161" s="18"/>
     </row>
     <row r="162" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="16" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>350</v>
+        <v>216</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="19"/>
@@ -6320,20 +6428,20 @@
       <c r="I162" s="21"/>
       <c r="J162" s="21"/>
       <c r="K162" s="18">
-        <v>12.74</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="L162" s="18"/>
       <c r="M162" s="18"/>
     </row>
     <row r="163" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="16" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="19"/>
@@ -6343,20 +6451,20 @@
       <c r="I163" s="21"/>
       <c r="J163" s="21"/>
       <c r="K163" s="18">
-        <v>13.78</v>
+        <v>20.18</v>
       </c>
       <c r="L163" s="18"/>
       <c r="M163" s="18"/>
     </row>
     <row r="164" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="16" t="s">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>340</v>
+        <v>218</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="19"/>
@@ -6366,20 +6474,20 @@
       <c r="I164" s="21"/>
       <c r="J164" s="21"/>
       <c r="K164" s="18">
-        <v>17.239999999999998</v>
+        <v>8.27</v>
       </c>
       <c r="L164" s="18"/>
       <c r="M164" s="18"/>
     </row>
     <row r="165" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D165" s="17"/>
       <c r="E165" s="19"/>
@@ -6389,20 +6497,20 @@
       <c r="I165" s="21"/>
       <c r="J165" s="21"/>
       <c r="K165" s="18">
-        <v>20.18</v>
+        <v>14.22</v>
       </c>
       <c r="L165" s="18"/>
       <c r="M165" s="18"/>
     </row>
     <row r="166" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="16" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="19"/>
@@ -6412,17 +6520,17 @@
       <c r="I166" s="21"/>
       <c r="J166" s="21"/>
       <c r="K166" s="18">
-        <v>8.27</v>
+        <v>19.39</v>
       </c>
       <c r="L166" s="18"/>
       <c r="M166" s="18"/>
     </row>
     <row r="167" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="16" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>115</v>
@@ -6435,17 +6543,17 @@
       <c r="I167" s="21"/>
       <c r="J167" s="21"/>
       <c r="K167" s="18">
-        <v>14.22</v>
+        <v>15.44</v>
       </c>
       <c r="L167" s="18"/>
       <c r="M167" s="18"/>
     </row>
     <row r="168" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="16" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>115</v>
@@ -6458,20 +6566,20 @@
       <c r="I168" s="21"/>
       <c r="J168" s="21"/>
       <c r="K168" s="18">
-        <v>19.39</v>
+        <v>17.68</v>
       </c>
       <c r="L168" s="18"/>
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="16" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="19"/>
@@ -6481,20 +6589,20 @@
       <c r="I169" s="21"/>
       <c r="J169" s="21"/>
       <c r="K169" s="18">
-        <v>15.44</v>
+        <v>9.5</v>
       </c>
       <c r="L169" s="18"/>
       <c r="M169" s="18"/>
     </row>
     <row r="170" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="16" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="D170" s="17"/>
       <c r="E170" s="19"/>
@@ -6504,17 +6612,17 @@
       <c r="I170" s="21"/>
       <c r="J170" s="21"/>
       <c r="K170" s="18">
-        <v>17.68</v>
+        <v>12.52</v>
       </c>
       <c r="L170" s="18"/>
       <c r="M170" s="18"/>
     </row>
     <row r="171" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="16" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="C171" s="16" t="s">
         <v>43</v>
@@ -6527,17 +6635,17 @@
       <c r="I171" s="21"/>
       <c r="J171" s="21"/>
       <c r="K171" s="18">
-        <v>9.5</v>
+        <v>12.84</v>
       </c>
       <c r="L171" s="18"/>
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="16" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="C172" s="16" t="s">
         <v>43</v>
@@ -6550,17 +6658,17 @@
       <c r="I172" s="21"/>
       <c r="J172" s="21"/>
       <c r="K172" s="18">
-        <v>12.52</v>
+        <v>20.13</v>
       </c>
       <c r="L172" s="18"/>
       <c r="M172" s="18"/>
     </row>
     <row r="173" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="16" t="s">
-        <v>223</v>
+        <v>396</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>224</v>
+        <v>397</v>
       </c>
       <c r="C173" s="16" t="s">
         <v>43</v>
@@ -6573,78 +6681,32 @@
       <c r="I173" s="21"/>
       <c r="J173" s="21"/>
       <c r="K173" s="18">
-        <v>12.84</v>
+        <v>10.81</v>
       </c>
       <c r="L173" s="18"/>
       <c r="M173" s="18"/>
     </row>
-    <row r="174" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D174" s="17"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="40"/>
-      <c r="H174" s="44"/>
-      <c r="I174" s="21"/>
-      <c r="J174" s="21"/>
-      <c r="K174" s="18">
-        <v>20.13</v>
-      </c>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
-    </row>
-    <row r="175" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D175" s="17"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="40"/>
-      <c r="H175" s="44"/>
-      <c r="I175" s="21"/>
-      <c r="J175" s="21"/>
-      <c r="K175" s="18">
-        <v>10.81</v>
-      </c>
-      <c r="L175" s="18"/>
-      <c r="M175" s="18"/>
-    </row>
-    <row r="178" spans="1:10" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="23"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="E178" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="F178" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G178" s="41" t="s">
-        <v>423</v>
-      </c>
-      <c r="H178" s="45"/>
-      <c r="I178" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="J178" s="28"/>
+    <row r="176" spans="1:13" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="23"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="F176" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="G176" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="H176" s="45"/>
+      <c r="I176" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="J176" s="28"/>
     </row>
   </sheetData>
   <sortState ref="A2:J180">

--- a/股票.xlsx
+++ b/股票.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="475">
   <si>
     <t>毛利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,12 +543,6 @@
     <t>远大智能</t>
   </si>
   <si>
-    <t>SZ002725</t>
-  </si>
-  <si>
-    <t>跃岭股份</t>
-  </si>
-  <si>
     <t>SZ300020</t>
   </si>
   <si>
@@ -1603,6 +1597,42 @@
   </si>
   <si>
     <t>98.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人持股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营构成不单一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.25</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1693,13 +1723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="40"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,18 +1886,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1897,10 +1927,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2308,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2332,7 +2362,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="D1" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -2358,16 +2388,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="H2" s="36" t="s">
         <v>306</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>308</v>
       </c>
       <c r="I2" s="37"/>
       <c r="J2" s="28"/>
@@ -2378,7 +2408,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="26.25" customHeight="1">
@@ -2390,13 +2420,13 @@
       <c r="F3" s="43"/>
       <c r="G3" s="45"/>
       <c r="H3" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2493,10 +2523,10 @@
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>60</v>
@@ -2516,10 +2546,10 @@
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>60</v>
@@ -2539,10 +2569,10 @@
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>60</v>
@@ -2562,10 +2592,10 @@
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>60</v>
@@ -2654,10 +2684,10 @@
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>90</v>
@@ -2677,10 +2707,10 @@
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>90</v>
@@ -2700,10 +2730,10 @@
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>90</v>
@@ -2723,10 +2753,10 @@
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>90</v>
@@ -2746,10 +2776,10 @@
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>90</v>
@@ -2769,10 +2799,10 @@
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>90</v>
@@ -2792,10 +2822,10 @@
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>90</v>
@@ -2902,10 +2932,10 @@
         <v>10.220000000000001</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I25" s="16">
         <v>65.03</v>
@@ -2921,10 +2951,10 @@
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>160</v>
@@ -2939,10 +2969,10 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I26" s="16">
         <v>69.97</v>
@@ -2958,13 +2988,13 @@
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="D27" s="13">
         <v>41.18</v>
@@ -2976,10 +3006,10 @@
         <v>9.52</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I27" s="16">
         <v>40.75</v>
@@ -2995,13 +3025,13 @@
     </row>
     <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D28" s="13">
         <v>31.31</v>
@@ -3013,10 +3043,10 @@
         <v>6.7</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I28" s="16">
         <v>18.47</v>
@@ -3050,10 +3080,10 @@
         <v>6.05</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I29" s="16">
         <v>36.04</v>
@@ -3069,10 +3099,10 @@
     </row>
     <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>34</v>
@@ -3087,10 +3117,10 @@
         <v>9.1300000000000008</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I30" s="16">
         <v>33.979999999999997</v>
@@ -3106,10 +3136,10 @@
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>34</v>
@@ -3124,10 +3154,10 @@
         <v>7.96</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I31" s="16">
         <v>25.02</v>
@@ -3143,10 +3173,10 @@
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>34</v>
@@ -3161,10 +3191,10 @@
         <v>5</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I32" s="16">
         <v>29.48</v>
@@ -3198,10 +3228,10 @@
         <v>9.49</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I33" s="16">
         <v>32.97</v>
@@ -3217,10 +3247,10 @@
     </row>
     <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>86</v>
@@ -3235,10 +3265,10 @@
         <v>6.48</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I34" s="16">
         <v>31.89</v>
@@ -3254,10 +3284,10 @@
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>86</v>
@@ -3272,10 +3302,10 @@
         <v>4.28</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I35" s="16">
         <v>28.36</v>
@@ -3291,10 +3321,10 @@
     </row>
     <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>86</v>
@@ -3309,10 +3339,10 @@
         <v>5.05</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I36" s="16">
         <v>22.39</v>
@@ -3346,10 +3376,10 @@
         <v>5.29</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I37" s="16">
         <v>29.12</v>
@@ -3383,10 +3413,10 @@
         <v>6.29</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I38" s="16">
         <v>28</v>
@@ -3402,10 +3432,10 @@
     </row>
     <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>63</v>
@@ -3420,10 +3450,10 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I39" s="16">
         <v>39.53</v>
@@ -3439,13 +3469,13 @@
     </row>
     <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="D40" s="13">
         <v>34.409999999999997</v>
@@ -3457,10 +3487,10 @@
         <v>5.46</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I40" s="16">
         <v>36.07</v>
@@ -3476,10 +3506,10 @@
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>107</v>
@@ -3494,10 +3524,10 @@
         <v>7</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I41" s="16">
         <v>15.33</v>
@@ -3531,10 +3561,10 @@
         <v>9.02</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I42" s="16">
         <v>29.2</v>
@@ -3550,10 +3580,10 @@
     </row>
     <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>46</v>
@@ -3568,10 +3598,10 @@
         <v>9.81</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I43" s="16">
         <v>17.98</v>
@@ -3587,10 +3617,10 @@
     </row>
     <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>46</v>
@@ -3605,10 +3635,10 @@
         <v>8.44</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I44" s="16">
         <v>34.72</v>
@@ -3624,10 +3654,10 @@
     </row>
     <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>46</v>
@@ -3642,10 +3672,10 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I45" s="16">
         <v>34.96</v>
@@ -3661,10 +3691,10 @@
     </row>
     <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>46</v>
@@ -3679,10 +3709,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I46" s="16">
         <v>58.02</v>
@@ -3706,13 +3736,27 @@
       <c r="C47" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
+      <c r="D47" s="13">
+        <v>26.75</v>
+      </c>
+      <c r="E47" s="17">
+        <v>36054</v>
+      </c>
+      <c r="F47" s="15">
+        <v>11.03</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="I47" s="16">
+        <v>11.16</v>
+      </c>
+      <c r="J47" s="16">
+        <v>4.5</v>
+      </c>
       <c r="K47" s="12">
         <v>14.49</v>
       </c>
@@ -3729,17 +3773,33 @@
       <c r="C48" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
+      <c r="D48" s="13">
+        <v>36.61</v>
+      </c>
+      <c r="E48" s="17">
+        <v>58810.23</v>
+      </c>
+      <c r="F48" s="15">
+        <v>9.84</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="I48" s="16">
+        <v>18.34</v>
+      </c>
+      <c r="J48" s="16">
+        <v>6.23</v>
+      </c>
       <c r="K48" s="12">
         <v>13.3</v>
       </c>
-      <c r="L48" s="12"/>
+      <c r="L48" s="12" t="s">
+        <v>470</v>
+      </c>
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -3752,13 +3812,27 @@
       <c r="C49" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
+      <c r="D49" s="13">
+        <v>34.4</v>
+      </c>
+      <c r="E49" s="17">
+        <v>34800</v>
+      </c>
+      <c r="F49" s="15">
+        <v>8.82</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="I49" s="16">
+        <v>39.6</v>
+      </c>
+      <c r="J49" s="16">
+        <v>7.13</v>
+      </c>
       <c r="K49" s="12">
         <v>11.64</v>
       </c>
@@ -3767,128 +3841,172 @@
     </row>
     <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
+      <c r="D50" s="13">
+        <v>33.29</v>
+      </c>
+      <c r="E50" s="17">
+        <v>80726.25</v>
+      </c>
+      <c r="F50" s="15">
+        <v>15.07</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="I50" s="16">
+        <v>26.21</v>
+      </c>
+      <c r="J50" s="16">
+        <v>8.65</v>
+      </c>
       <c r="K50" s="12">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="L50" s="12"/>
+        <v>10.35</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>473</v>
+      </c>
       <c r="M50" s="12"/>
     </row>
     <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
+        <v>75</v>
+      </c>
+      <c r="D51" s="13">
+        <v>26.45</v>
+      </c>
+      <c r="E51" s="17">
+        <v>36715.980000000003</v>
+      </c>
+      <c r="F51" s="15">
+        <v>6.23</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="I51" s="16">
+        <v>32.35</v>
+      </c>
+      <c r="J51" s="16">
+        <v>11.26</v>
+      </c>
       <c r="K51" s="12">
-        <v>10.35</v>
+        <v>13.2</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="D52" s="13">
+        <v>58.76</v>
+      </c>
+      <c r="E52" s="17">
+        <v>38914.629999999997</v>
+      </c>
+      <c r="F52" s="15">
+        <v>4.84</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="I52" s="16">
+        <v>42.96</v>
+      </c>
+      <c r="J52" s="16">
+        <v>8.6199999999999992</v>
+      </c>
       <c r="K52" s="12">
-        <v>13.2</v>
+        <v>16.68</v>
       </c>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="D53" s="13">
-        <v>58.76</v>
-      </c>
-      <c r="E53" s="17">
-        <v>38914.629999999997</v>
+        <v>48.97</v>
+      </c>
+      <c r="E53" s="27">
+        <v>42210</v>
       </c>
       <c r="F53" s="15">
-        <v>4.84</v>
+        <v>8.52</v>
       </c>
       <c r="G53" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="H53" s="24" t="s">
-        <v>319</v>
-      </c>
       <c r="I53" s="16">
-        <v>42.96</v>
+        <v>24.09</v>
       </c>
       <c r="J53" s="16">
-        <v>8.6199999999999992</v>
+        <v>19</v>
       </c>
       <c r="K53" s="12">
-        <v>16.68</v>
+        <v>14.83</v>
       </c>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D54" s="13">
-        <v>48.97</v>
-      </c>
-      <c r="E54" s="27">
-        <v>42210</v>
+        <v>62.09</v>
+      </c>
+      <c r="E54" s="17">
+        <v>104699.35</v>
       </c>
       <c r="F54" s="15">
-        <v>8.52</v>
+        <v>6.46</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>347</v>
@@ -3897,35 +4015,35 @@
         <v>348</v>
       </c>
       <c r="I54" s="16">
-        <v>24.09</v>
+        <v>35.78</v>
       </c>
       <c r="J54" s="16">
-        <v>19</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K54" s="12">
-        <v>14.83</v>
+        <v>5.96</v>
       </c>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D55" s="13">
-        <v>62.09</v>
+        <v>50.96</v>
       </c>
       <c r="E55" s="17">
-        <v>104699.35</v>
+        <v>40088.199999999997</v>
       </c>
       <c r="F55" s="15">
-        <v>6.46</v>
+        <v>8.58</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>349</v>
@@ -3934,13 +4052,13 @@
         <v>350</v>
       </c>
       <c r="I55" s="16">
-        <v>35.78</v>
+        <v>19.59</v>
       </c>
       <c r="J55" s="16">
-        <v>4.3499999999999996</v>
+        <v>4.91</v>
       </c>
       <c r="K55" s="12">
-        <v>5.96</v>
+        <v>14.48</v>
       </c>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
@@ -3956,124 +4074,124 @@
         <v>102</v>
       </c>
       <c r="D56" s="13">
-        <v>50.96</v>
+        <v>30.51</v>
       </c>
       <c r="E56" s="17">
-        <v>40088.199999999997</v>
+        <v>37624.03</v>
       </c>
       <c r="F56" s="15">
-        <v>8.58</v>
+        <v>7.47</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>351</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="I56" s="16">
-        <v>19.59</v>
+        <v>30</v>
       </c>
       <c r="J56" s="16">
-        <v>4.91</v>
+        <v>7.71</v>
       </c>
       <c r="K56" s="12">
-        <v>14.48</v>
+        <v>12.41</v>
       </c>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D57" s="13">
-        <v>30.51</v>
+        <v>34.11</v>
       </c>
       <c r="E57" s="17">
-        <v>37624.03</v>
+        <v>61758.58</v>
       </c>
       <c r="F57" s="15">
-        <v>7.47</v>
+        <v>5.86</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="I57" s="16">
-        <v>30</v>
+        <v>19.66</v>
       </c>
       <c r="J57" s="16">
-        <v>7.71</v>
+        <v>7.9</v>
       </c>
       <c r="K57" s="12">
-        <v>12.41</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
     </row>
     <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D58" s="13">
-        <v>34.11</v>
+        <v>56.94</v>
       </c>
       <c r="E58" s="17">
-        <v>61758.58</v>
+        <v>26967.37</v>
       </c>
       <c r="F58" s="15">
-        <v>5.86</v>
+        <v>6.71</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="I58" s="16">
-        <v>19.66</v>
+        <v>37.19</v>
       </c>
       <c r="J58" s="16">
-        <v>7.9</v>
+        <v>14.36</v>
       </c>
       <c r="K58" s="12">
-        <v>9.1199999999999992</v>
+        <v>12.9</v>
       </c>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="13">
-        <v>56.94</v>
+        <v>58.81</v>
       </c>
       <c r="E59" s="17">
-        <v>26967.37</v>
+        <v>30846.400000000001</v>
       </c>
       <c r="F59" s="15">
-        <v>6.71</v>
+        <v>9.16</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>323</v>
@@ -4082,109 +4200,109 @@
         <v>324</v>
       </c>
       <c r="I59" s="16">
-        <v>37.19</v>
+        <v>42.67</v>
       </c>
       <c r="J59" s="16">
-        <v>14.36</v>
+        <v>5.87</v>
       </c>
       <c r="K59" s="12">
-        <v>12.9</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D60" s="13">
-        <v>58.81</v>
+        <v>44.1</v>
       </c>
       <c r="E60" s="17">
-        <v>30846.400000000001</v>
+        <v>52691.31</v>
       </c>
       <c r="F60" s="15">
-        <v>9.16</v>
+        <v>7.81</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>325</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I60" s="16">
-        <v>42.67</v>
+        <v>32.33</v>
       </c>
       <c r="J60" s="16">
-        <v>5.87</v>
+        <v>7.01</v>
       </c>
       <c r="K60" s="12">
-        <v>19.149999999999999</v>
+        <v>11.98</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="13">
-        <v>44.1</v>
+        <v>75.33</v>
       </c>
       <c r="E61" s="17">
-        <v>52691.31</v>
+        <v>42268.52</v>
       </c>
       <c r="F61" s="15">
-        <v>7.81</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="G61" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="H61" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="H61" s="24" t="s">
-        <v>319</v>
-      </c>
       <c r="I61" s="16">
-        <v>32.33</v>
+        <v>15.73</v>
       </c>
       <c r="J61" s="16">
-        <v>7.01</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K61" s="12">
-        <v>11.98</v>
+        <v>12.81</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="13">
-        <v>75.33</v>
+        <v>36.61</v>
       </c>
       <c r="E62" s="17">
-        <v>42268.52</v>
+        <v>17950.97</v>
       </c>
       <c r="F62" s="15">
-        <v>9.9600000000000009</v>
+        <v>6.14</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>328</v>
@@ -4193,109 +4311,109 @@
         <v>329</v>
       </c>
       <c r="I62" s="16">
-        <v>15.73</v>
+        <v>51.47</v>
       </c>
       <c r="J62" s="16">
-        <v>9.1999999999999993</v>
+        <v>3.38</v>
       </c>
       <c r="K62" s="12">
-        <v>12.81</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
     </row>
     <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>54</v>
+        <v>298</v>
       </c>
       <c r="D63" s="13">
-        <v>36.61</v>
+        <v>41.46</v>
       </c>
       <c r="E63" s="17">
-        <v>17950.97</v>
+        <v>96117.99</v>
       </c>
       <c r="F63" s="15">
-        <v>6.14</v>
+        <v>8.35</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="I63" s="16">
-        <v>51.47</v>
+        <v>63.69</v>
       </c>
       <c r="J63" s="16">
-        <v>3.38</v>
+        <v>2.58</v>
       </c>
       <c r="K63" s="12">
-        <v>17.920000000000002</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
     </row>
     <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="D64" s="13">
-        <v>41.46</v>
+        <v>33.31</v>
       </c>
       <c r="E64" s="17">
-        <v>96117.99</v>
+        <v>46876.91</v>
       </c>
       <c r="F64" s="15">
-        <v>8.35</v>
+        <v>9.94</v>
       </c>
       <c r="G64" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="H64" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="H64" s="24" t="s">
-        <v>371</v>
-      </c>
       <c r="I64" s="16">
-        <v>63.69</v>
+        <v>27.18</v>
       </c>
       <c r="J64" s="16">
-        <v>2.58</v>
+        <v>5.2</v>
       </c>
       <c r="K64" s="12">
-        <v>9.1300000000000008</v>
+        <v>14.14</v>
       </c>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D65" s="13">
-        <v>33.31</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="E65" s="17">
-        <v>46876.91</v>
+        <v>34273.199999999997</v>
       </c>
       <c r="F65" s="15">
-        <v>9.94</v>
+        <v>8.43</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>383</v>
@@ -4304,35 +4422,35 @@
         <v>384</v>
       </c>
       <c r="I65" s="16">
-        <v>27.18</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="J65" s="16">
-        <v>5.2</v>
+        <v>4.58</v>
       </c>
       <c r="K65" s="12">
-        <v>14.14</v>
+        <v>12.95</v>
       </c>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D66" s="13">
-        <v>39.020000000000003</v>
+        <v>37</v>
       </c>
       <c r="E66" s="17">
-        <v>34273.199999999997</v>
+        <v>84511.12</v>
       </c>
       <c r="F66" s="15">
-        <v>8.43</v>
+        <v>7.85</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>385</v>
@@ -4341,35 +4459,35 @@
         <v>386</v>
       </c>
       <c r="I66" s="16">
-        <v>17.760000000000002</v>
+        <v>30.01</v>
       </c>
       <c r="J66" s="16">
-        <v>4.58</v>
+        <v>14.55</v>
       </c>
       <c r="K66" s="12">
-        <v>12.95</v>
+        <v>10.82</v>
       </c>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D67" s="13">
-        <v>37</v>
-      </c>
-      <c r="E67" s="17">
-        <v>84511.12</v>
+        <v>29</v>
+      </c>
+      <c r="E67" s="27">
+        <v>95600</v>
       </c>
       <c r="F67" s="15">
-        <v>7.85</v>
+        <v>6.42</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>387</v>
@@ -4378,701 +4496,701 @@
         <v>388</v>
       </c>
       <c r="I67" s="16">
-        <v>30.01</v>
+        <v>81.849999999999994</v>
       </c>
       <c r="J67" s="16">
-        <v>14.55</v>
+        <v>1.24</v>
       </c>
       <c r="K67" s="12">
-        <v>10.82</v>
+        <v>12.46</v>
       </c>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
     </row>
     <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D68" s="13">
-        <v>29</v>
-      </c>
-      <c r="E68" s="27">
-        <v>95600</v>
+        <v>59.87</v>
+      </c>
+      <c r="E68" s="17">
+        <v>64633.64</v>
       </c>
       <c r="F68" s="15">
-        <v>6.42</v>
+        <v>6.95</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>389</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I68" s="16">
-        <v>81.849999999999994</v>
+        <v>41.67</v>
       </c>
       <c r="J68" s="16">
-        <v>1.24</v>
+        <v>5.24</v>
       </c>
       <c r="K68" s="12">
-        <v>12.46</v>
+        <v>13.52</v>
       </c>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D69" s="13">
-        <v>59.87</v>
-      </c>
-      <c r="E69" s="17">
-        <v>64633.64</v>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E69" s="27">
+        <v>48412</v>
       </c>
       <c r="F69" s="15">
-        <v>6.95</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>391</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I69" s="16">
-        <v>41.67</v>
+        <v>33.090000000000003</v>
       </c>
       <c r="J69" s="16">
-        <v>5.24</v>
+        <v>32.44</v>
       </c>
       <c r="K69" s="12">
-        <v>13.52</v>
+        <v>16.09</v>
       </c>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>304</v>
+        <v>71</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D70" s="13">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="E70" s="27">
-        <v>48412</v>
+        <v>69.72</v>
+      </c>
+      <c r="E70" s="17">
+        <v>59656.13</v>
       </c>
       <c r="F70" s="15">
-        <v>8.9600000000000009</v>
+        <v>7.31</v>
       </c>
       <c r="G70" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="H70" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="H70" s="24" t="s">
-        <v>392</v>
-      </c>
       <c r="I70" s="16">
-        <v>33.090000000000003</v>
+        <v>11.61</v>
       </c>
       <c r="J70" s="16">
-        <v>32.44</v>
+        <v>6.3</v>
       </c>
       <c r="K70" s="12">
-        <v>16.09</v>
+        <v>14.51</v>
       </c>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
     </row>
     <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="13">
-        <v>69.72</v>
+        <v>26.41</v>
       </c>
       <c r="E71" s="17">
-        <v>59656.13</v>
+        <v>65519.08</v>
       </c>
       <c r="F71" s="15">
-        <v>7.31</v>
+        <v>5.82</v>
       </c>
       <c r="G71" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="H71" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="H71" s="24" t="s">
-        <v>395</v>
-      </c>
       <c r="I71" s="16">
-        <v>11.61</v>
+        <v>26.01</v>
       </c>
       <c r="J71" s="16">
-        <v>6.3</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="K71" s="12">
-        <v>14.51</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
     </row>
     <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D72" s="13">
-        <v>26.41</v>
-      </c>
-      <c r="E72" s="17">
-        <v>65519.08</v>
+        <v>44.79</v>
+      </c>
+      <c r="E72" s="27">
+        <v>54000</v>
       </c>
       <c r="F72" s="15">
-        <v>5.82</v>
+        <v>7.71</v>
       </c>
       <c r="G72" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="H72" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="H72" s="24" t="s">
-        <v>396</v>
-      </c>
       <c r="I72" s="16">
-        <v>26.01</v>
+        <v>21.11</v>
       </c>
       <c r="J72" s="16">
-        <v>4.2699999999999996</v>
+        <v>21.11</v>
       </c>
       <c r="K72" s="12">
-        <v>17.600000000000001</v>
+        <v>11.92</v>
       </c>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
     </row>
     <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D73" s="13">
-        <v>44.79</v>
-      </c>
-      <c r="E73" s="27">
-        <v>54000</v>
+        <v>42.23</v>
+      </c>
+      <c r="E73" s="17">
+        <v>97068.5</v>
       </c>
       <c r="F73" s="15">
-        <v>7.71</v>
+        <v>6.97</v>
       </c>
       <c r="G73" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H73" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="H73" s="24" t="s">
-        <v>399</v>
-      </c>
       <c r="I73" s="16">
-        <v>21.11</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="J73" s="16">
-        <v>21.11</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="K73" s="12">
-        <v>11.92</v>
+        <v>17.03</v>
       </c>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D74" s="13">
-        <v>42.23</v>
-      </c>
-      <c r="E74" s="17">
-        <v>97068.5</v>
+        <v>46.02</v>
+      </c>
+      <c r="E74" s="27">
+        <v>60000</v>
       </c>
       <c r="F74" s="15">
-        <v>6.97</v>
+        <v>5.84</v>
       </c>
       <c r="G74" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="H74" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="H74" s="24" t="s">
-        <v>400</v>
-      </c>
       <c r="I74" s="16">
-        <v>18.440000000000001</v>
+        <v>13.71</v>
       </c>
       <c r="J74" s="16">
-        <v>18.329999999999998</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="K74" s="12">
-        <v>17.03</v>
+        <v>12.77</v>
       </c>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="12" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="D75" s="13">
-        <v>46.02</v>
-      </c>
-      <c r="E75" s="27">
-        <v>60000</v>
+        <v>33.340000000000003</v>
+      </c>
+      <c r="E75" s="17">
+        <v>60607.040000000001</v>
       </c>
       <c r="F75" s="15">
-        <v>5.84</v>
+        <v>6.16</v>
       </c>
       <c r="G75" s="29" t="s">
         <v>402</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="I75" s="16">
-        <v>13.71</v>
+        <v>38.630000000000003</v>
       </c>
       <c r="J75" s="16">
-        <v>9.8800000000000008</v>
+        <v>2.52</v>
       </c>
       <c r="K75" s="12">
-        <v>12.77</v>
+        <v>13.33</v>
       </c>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D76" s="13">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="E76" s="17">
-        <v>60607.040000000001</v>
+        <v>43.81</v>
+      </c>
+      <c r="E76" s="27">
+        <v>29781</v>
       </c>
       <c r="F76" s="15">
-        <v>6.16</v>
+        <v>10.27</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I76" s="16">
-        <v>38.630000000000003</v>
+        <v>68</v>
       </c>
       <c r="J76" s="16">
-        <v>2.52</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="K76" s="12">
-        <v>13.33</v>
+        <v>19.21</v>
       </c>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
     </row>
     <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="12" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="D77" s="13">
-        <v>43.81</v>
-      </c>
-      <c r="E77" s="27">
-        <v>29781</v>
+        <v>29.23</v>
+      </c>
+      <c r="E77" s="17">
+        <v>73518.48</v>
       </c>
       <c r="F77" s="15">
-        <v>10.27</v>
+        <v>8.81</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I77" s="16">
-        <v>68</v>
+        <v>28.88</v>
       </c>
       <c r="J77" s="16">
-        <v>2.0099999999999998</v>
+        <v>3.17</v>
       </c>
       <c r="K77" s="12">
-        <v>19.21</v>
+        <v>18.12</v>
       </c>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
     </row>
     <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>178</v>
-      </c>
       <c r="D78" s="13">
-        <v>29.23</v>
+        <v>47.08</v>
       </c>
       <c r="E78" s="17">
-        <v>73518.48</v>
+        <v>34439.53</v>
       </c>
       <c r="F78" s="15">
-        <v>8.81</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="G78" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="H78" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="H78" s="24" t="s">
-        <v>388</v>
-      </c>
       <c r="I78" s="16">
-        <v>28.88</v>
+        <v>13.86</v>
       </c>
       <c r="J78" s="16">
-        <v>3.17</v>
+        <v>3.71</v>
       </c>
       <c r="K78" s="12">
-        <v>18.12</v>
+        <v>14.2</v>
       </c>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
     </row>
     <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D79" s="13">
-        <v>47.08</v>
-      </c>
-      <c r="E79" s="17">
-        <v>34439.53</v>
+        <v>31.95</v>
+      </c>
+      <c r="E79" s="27">
+        <v>33800</v>
       </c>
       <c r="F79" s="15">
-        <v>4.8899999999999997</v>
+        <v>10.39</v>
       </c>
       <c r="G79" s="29" t="s">
         <v>407</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I79" s="16">
-        <v>13.86</v>
+        <v>28.98</v>
       </c>
       <c r="J79" s="16">
-        <v>3.71</v>
+        <v>5.22</v>
       </c>
       <c r="K79" s="12">
-        <v>14.2</v>
+        <v>14.33</v>
       </c>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
     </row>
     <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D80" s="13">
-        <v>31.95</v>
-      </c>
-      <c r="E80" s="27">
-        <v>33800</v>
+        <v>34.130000000000003</v>
+      </c>
+      <c r="E80" s="17">
+        <v>34812.089999999997</v>
       </c>
       <c r="F80" s="15">
-        <v>10.39</v>
+        <v>7.88</v>
       </c>
       <c r="G80" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H80" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="H80" s="24" t="s">
-        <v>388</v>
-      </c>
       <c r="I80" s="16">
-        <v>28.98</v>
+        <v>51.94</v>
       </c>
       <c r="J80" s="16">
-        <v>5.22</v>
+        <v>4.7</v>
       </c>
       <c r="K80" s="12">
-        <v>14.33</v>
+        <v>18.66</v>
       </c>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
     </row>
     <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D81" s="13">
-        <v>34.130000000000003</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E81" s="17">
-        <v>34812.089999999997</v>
+        <v>38718.949999999997</v>
       </c>
       <c r="F81" s="15">
-        <v>7.88</v>
+        <v>6.18</v>
       </c>
       <c r="G81" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="H81" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="H81" s="24" t="s">
-        <v>411</v>
-      </c>
       <c r="I81" s="16">
-        <v>51.94</v>
+        <v>21.26</v>
       </c>
       <c r="J81" s="16">
-        <v>4.7</v>
+        <v>7.01</v>
       </c>
       <c r="K81" s="12">
-        <v>18.66</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
     </row>
     <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D82" s="13">
-        <v>32.869999999999997</v>
-      </c>
-      <c r="E82" s="17">
-        <v>38718.949999999997</v>
+        <v>37.229999999999997</v>
+      </c>
+      <c r="E82" s="27">
+        <v>57600</v>
       </c>
       <c r="F82" s="15">
-        <v>6.18</v>
+        <v>7.46</v>
       </c>
       <c r="G82" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="H82" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="H82" s="24" t="s">
-        <v>412</v>
-      </c>
       <c r="I82" s="16">
-        <v>21.26</v>
+        <v>35</v>
       </c>
       <c r="J82" s="16">
-        <v>7.01</v>
+        <v>25.67</v>
       </c>
       <c r="K82" s="12">
-        <v>18.600000000000001</v>
+        <v>20.25</v>
       </c>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
     </row>
     <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>157</v>
       </c>
       <c r="D83" s="13">
-        <v>37.229999999999997</v>
-      </c>
-      <c r="E83" s="27">
-        <v>57600</v>
+        <v>82.72</v>
+      </c>
+      <c r="E83" s="17">
+        <v>100445.4</v>
       </c>
       <c r="F83" s="15">
-        <v>7.46</v>
+        <v>20.37</v>
       </c>
       <c r="G83" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="H83" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="H83" s="24" t="s">
-        <v>415</v>
-      </c>
       <c r="I83" s="16">
-        <v>35</v>
+        <v>21.17</v>
       </c>
       <c r="J83" s="16">
-        <v>25.67</v>
+        <v>18.21</v>
       </c>
       <c r="K83" s="12">
-        <v>20.25</v>
+        <v>14.62</v>
       </c>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
     </row>
     <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="D84" s="13">
-        <v>82.72</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="E84" s="17">
-        <v>100445.4</v>
+        <v>31524.35</v>
       </c>
       <c r="F84" s="15">
-        <v>20.37</v>
+        <v>9.14</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="I84" s="16">
-        <v>21.17</v>
+        <v>38.9</v>
       </c>
       <c r="J84" s="16">
-        <v>18.21</v>
+        <v>3.17</v>
       </c>
       <c r="K84" s="12">
-        <v>14.62</v>
+        <v>15.65</v>
       </c>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D85" s="13">
-        <v>36.409999999999997</v>
+        <v>48.69</v>
       </c>
       <c r="E85" s="17">
-        <v>31524.35</v>
+        <v>39151.26</v>
       </c>
       <c r="F85" s="15">
-        <v>9.14</v>
+        <v>7.58</v>
       </c>
       <c r="G85" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="H85" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="H85" s="24" t="s">
-        <v>388</v>
-      </c>
       <c r="I85" s="16">
-        <v>38.9</v>
+        <v>23.09</v>
       </c>
       <c r="J85" s="16">
-        <v>3.17</v>
+        <v>3.88</v>
       </c>
       <c r="K85" s="12">
-        <v>15.65</v>
+        <v>12.76</v>
       </c>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
     </row>
     <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D86" s="13">
-        <v>48.69</v>
+        <v>33.57</v>
       </c>
       <c r="E86" s="17">
-        <v>39151.26</v>
+        <v>20039.22</v>
       </c>
       <c r="F86" s="15">
-        <v>7.58</v>
+        <v>5.22</v>
       </c>
       <c r="G86" s="29" t="s">
         <v>418</v>
@@ -5081,407 +5199,407 @@
         <v>419</v>
       </c>
       <c r="I86" s="16">
-        <v>23.09</v>
+        <v>22.65</v>
       </c>
       <c r="J86" s="16">
-        <v>3.88</v>
+        <v>4.97</v>
       </c>
       <c r="K86" s="12">
-        <v>12.76</v>
+        <v>19.93</v>
       </c>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
     </row>
     <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D87" s="13">
-        <v>33.57</v>
+        <v>32.5</v>
       </c>
       <c r="E87" s="17">
-        <v>20039.22</v>
+        <v>52683.73</v>
       </c>
       <c r="F87" s="15">
-        <v>5.22</v>
+        <v>6.86</v>
       </c>
       <c r="G87" s="29" t="s">
         <v>420</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I87" s="16">
-        <v>22.65</v>
+        <v>43.84</v>
       </c>
       <c r="J87" s="16">
-        <v>4.97</v>
+        <v>6.25</v>
       </c>
       <c r="K87" s="12">
-        <v>19.93</v>
+        <v>9.69</v>
       </c>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
     </row>
     <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D88" s="13">
-        <v>32.5</v>
+        <v>32.78</v>
       </c>
       <c r="E88" s="17">
-        <v>52683.73</v>
+        <v>41305.730000000003</v>
       </c>
       <c r="F88" s="15">
-        <v>6.86</v>
+        <v>6.91</v>
       </c>
       <c r="G88" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="H88" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="H88" s="24" t="s">
-        <v>419</v>
-      </c>
       <c r="I88" s="16">
-        <v>43.84</v>
+        <v>45.07</v>
       </c>
       <c r="J88" s="16">
-        <v>6.25</v>
+        <v>10.67</v>
       </c>
       <c r="K88" s="12">
-        <v>9.69</v>
+        <v>17.2</v>
       </c>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
     </row>
     <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="12" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="13">
-        <v>32.78</v>
+        <v>42.4</v>
       </c>
       <c r="E89" s="17">
-        <v>41305.730000000003</v>
+        <v>26285.47</v>
       </c>
       <c r="F89" s="15">
-        <v>6.91</v>
+        <v>10.92</v>
       </c>
       <c r="G89" s="29" t="s">
         <v>423</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I89" s="16">
-        <v>45.07</v>
+        <v>31.26</v>
       </c>
       <c r="J89" s="16">
-        <v>10.67</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K89" s="12">
-        <v>17.2</v>
+        <v>10.6</v>
       </c>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
     </row>
     <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D90" s="13">
-        <v>42.4</v>
-      </c>
-      <c r="E90" s="17">
-        <v>26285.47</v>
+        <v>33.49</v>
+      </c>
+      <c r="E90" s="27">
+        <v>21360</v>
       </c>
       <c r="F90" s="15">
-        <v>10.92</v>
+        <v>7.05</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="I90" s="16">
-        <v>31.26</v>
+        <v>29.09</v>
       </c>
       <c r="J90" s="16">
-        <v>0.56999999999999995</v>
+        <v>11.96</v>
       </c>
       <c r="K90" s="12">
-        <v>10.6</v>
+        <v>13.4</v>
       </c>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
     </row>
     <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="D91" s="13">
-        <v>33.49</v>
-      </c>
-      <c r="E91" s="27">
-        <v>21360</v>
+        <v>87.72</v>
+      </c>
+      <c r="E91" s="17">
+        <v>90774.2</v>
       </c>
       <c r="F91" s="15">
-        <v>7.05</v>
+        <v>7.26</v>
       </c>
       <c r="G91" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="H91" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="H91" s="24" t="s">
-        <v>419</v>
-      </c>
       <c r="I91" s="16">
-        <v>29.09</v>
+        <v>14.96</v>
       </c>
       <c r="J91" s="16">
-        <v>11.96</v>
+        <v>13.89</v>
       </c>
       <c r="K91" s="12">
-        <v>13.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
+      <c r="M91" s="12" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="92" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D92" s="13">
-        <v>87.72</v>
+        <v>46.45</v>
       </c>
       <c r="E92" s="17">
-        <v>90774.2</v>
+        <v>64476.37</v>
       </c>
       <c r="F92" s="15">
-        <v>7.26</v>
+        <v>12.34</v>
       </c>
       <c r="G92" s="29" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="I92" s="16">
-        <v>14.96</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="J92" s="16">
-        <v>13.89</v>
+        <v>25</v>
       </c>
       <c r="K92" s="12">
-        <v>8.1999999999999993</v>
+        <v>17.16</v>
       </c>
       <c r="L92" s="12"/>
-      <c r="M92" s="12" t="s">
-        <v>429</v>
-      </c>
+      <c r="M92" s="12"/>
     </row>
     <row r="93" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="12" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="13">
-        <v>46.45</v>
-      </c>
-      <c r="E93" s="17">
-        <v>64476.37</v>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E93" s="27">
+        <v>42588</v>
       </c>
       <c r="F93" s="15">
-        <v>12.34</v>
+        <v>5</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="I93" s="16">
-        <v>32.520000000000003</v>
+        <v>50.91</v>
       </c>
       <c r="J93" s="16">
-        <v>25</v>
+        <v>16.37</v>
       </c>
       <c r="K93" s="12">
-        <v>17.16</v>
+        <v>15.93</v>
       </c>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
     </row>
     <row r="94" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D94" s="13">
-        <v>34.799999999999997</v>
+        <v>36.57</v>
       </c>
       <c r="E94" s="27">
-        <v>42588</v>
+        <v>103680</v>
       </c>
       <c r="F94" s="15">
-        <v>5</v>
+        <v>8.69</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="I94" s="16">
-        <v>50.91</v>
+        <v>50.34</v>
       </c>
       <c r="J94" s="16">
-        <v>16.37</v>
+        <v>22.28</v>
       </c>
       <c r="K94" s="12">
-        <v>15.93</v>
+        <v>14.9</v>
       </c>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
     </row>
     <row r="95" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D95" s="13">
-        <v>36.57</v>
-      </c>
-      <c r="E95" s="27">
-        <v>103680</v>
+        <v>57.82</v>
+      </c>
+      <c r="E95" s="17">
+        <v>57463.72</v>
       </c>
       <c r="F95" s="15">
-        <v>8.69</v>
+        <v>6.41</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I95" s="16">
-        <v>50.34</v>
+        <v>53.73</v>
       </c>
       <c r="J95" s="16">
-        <v>22.28</v>
+        <v>5.25</v>
       </c>
       <c r="K95" s="12">
-        <v>14.9</v>
+        <v>15.56</v>
       </c>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
     </row>
     <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D96" s="13">
-        <v>57.82</v>
-      </c>
-      <c r="E96" s="17">
-        <v>57463.72</v>
+        <v>30.89</v>
+      </c>
+      <c r="E96" s="27">
+        <v>35800</v>
       </c>
       <c r="F96" s="15">
-        <v>6.41</v>
+        <v>8.59</v>
       </c>
       <c r="G96" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="H96" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="H96" s="24" t="s">
-        <v>388</v>
-      </c>
       <c r="I96" s="16">
-        <v>53.73</v>
+        <v>35.82</v>
       </c>
       <c r="J96" s="16">
-        <v>5.25</v>
+        <v>15.58</v>
       </c>
       <c r="K96" s="12">
-        <v>15.56</v>
+        <v>11.66</v>
       </c>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
     </row>
     <row r="97" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="12" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D97" s="13">
-        <v>30.89</v>
-      </c>
-      <c r="E97" s="27">
-        <v>35800</v>
+        <v>53.26</v>
+      </c>
+      <c r="E97" s="17">
+        <v>51271.76</v>
       </c>
       <c r="F97" s="15">
-        <v>8.59</v>
+        <v>5.8</v>
       </c>
       <c r="G97" s="29" t="s">
         <v>434</v>
@@ -5490,222 +5608,222 @@
         <v>435</v>
       </c>
       <c r="I97" s="16">
-        <v>35.82</v>
+        <v>20.82</v>
       </c>
       <c r="J97" s="16">
-        <v>15.58</v>
+        <v>1.65</v>
       </c>
       <c r="K97" s="12">
-        <v>11.66</v>
+        <v>7.76</v>
       </c>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
     </row>
     <row r="98" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D98" s="13">
-        <v>53.26</v>
+        <v>30.8</v>
       </c>
       <c r="E98" s="17">
-        <v>51271.76</v>
+        <v>49979.81</v>
       </c>
       <c r="F98" s="15">
-        <v>5.8</v>
+        <v>6.58</v>
       </c>
       <c r="G98" s="29" t="s">
         <v>436</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="I98" s="16">
-        <v>20.82</v>
+        <v>30.68</v>
       </c>
       <c r="J98" s="16">
-        <v>1.65</v>
+        <v>20.64</v>
       </c>
       <c r="K98" s="12">
-        <v>7.76</v>
+        <v>15.55</v>
       </c>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
     </row>
     <row r="99" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D99" s="13">
-        <v>30.8</v>
+        <v>43.34</v>
       </c>
       <c r="E99" s="17">
-        <v>49979.81</v>
+        <v>52408.24</v>
       </c>
       <c r="F99" s="15">
-        <v>6.58</v>
+        <v>7.22</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I99" s="16">
-        <v>30.68</v>
+        <v>26.62</v>
       </c>
       <c r="J99" s="16">
-        <v>20.64</v>
+        <v>10</v>
       </c>
       <c r="K99" s="12">
-        <v>15.55</v>
+        <v>10.24</v>
       </c>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D100" s="13">
-        <v>43.34</v>
+        <v>43.4</v>
       </c>
       <c r="E100" s="17">
-        <v>52408.24</v>
+        <v>88463.47</v>
       </c>
       <c r="F100" s="15">
-        <v>7.22</v>
+        <v>13.44</v>
       </c>
       <c r="G100" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="H100" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="H100" s="24" t="s">
-        <v>388</v>
-      </c>
       <c r="I100" s="16">
-        <v>26.62</v>
+        <v>30.41</v>
       </c>
       <c r="J100" s="16">
-        <v>10</v>
+        <v>4.67</v>
       </c>
       <c r="K100" s="12">
-        <v>10.24</v>
-      </c>
-      <c r="L100" s="12"/>
+        <v>12.49</v>
+      </c>
+      <c r="L100" s="12" t="s">
+        <v>440</v>
+      </c>
       <c r="M100" s="12"/>
     </row>
     <row r="101" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D101" s="13">
-        <v>43.4</v>
+        <v>33.67</v>
       </c>
       <c r="E101" s="17">
-        <v>88463.47</v>
+        <v>62638.63</v>
       </c>
       <c r="F101" s="15">
-        <v>13.44</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="I101" s="16">
-        <v>30.41</v>
+        <v>18.2</v>
       </c>
       <c r="J101" s="16">
-        <v>4.67</v>
+        <v>13.36</v>
       </c>
       <c r="K101" s="12">
-        <v>12.49</v>
-      </c>
-      <c r="L101" s="12" t="s">
-        <v>442</v>
-      </c>
+        <v>12.88</v>
+      </c>
+      <c r="L101" s="12"/>
       <c r="M101" s="12"/>
     </row>
     <row r="102" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D102" s="13">
-        <v>33.67</v>
+        <v>43.19</v>
       </c>
       <c r="E102" s="17">
-        <v>62638.63</v>
+        <v>74886.649999999994</v>
       </c>
       <c r="F102" s="15">
-        <v>10.199999999999999</v>
+        <v>6.84</v>
       </c>
       <c r="G102" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="H102" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="H102" s="24" t="s">
-        <v>392</v>
-      </c>
       <c r="I102" s="16">
-        <v>18.2</v>
+        <v>18.18</v>
       </c>
       <c r="J102" s="16">
-        <v>13.36</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="K102" s="12">
-        <v>12.88</v>
+        <v>8.41</v>
       </c>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
     </row>
     <row r="103" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D103" s="13">
-        <v>43.19</v>
+        <v>39.07</v>
       </c>
       <c r="E103" s="17">
-        <v>74886.649999999994</v>
+        <v>79559.55</v>
       </c>
       <c r="F103" s="15">
-        <v>6.84</v>
+        <v>9.81</v>
       </c>
       <c r="G103" s="29" t="s">
         <v>444</v>
@@ -5714,331 +5832,331 @@
         <v>445</v>
       </c>
       <c r="I103" s="16">
-        <v>18.18</v>
+        <v>24.92</v>
       </c>
       <c r="J103" s="16">
-        <v>4.8099999999999996</v>
+        <v>21.15</v>
       </c>
       <c r="K103" s="12">
-        <v>8.41</v>
+        <v>14.18</v>
       </c>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
     </row>
     <row r="104" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D104" s="13">
-        <v>39.07</v>
+        <v>30.89</v>
       </c>
       <c r="E104" s="17">
-        <v>79559.55</v>
+        <v>52542.400000000001</v>
       </c>
       <c r="F104" s="15">
-        <v>9.81</v>
+        <v>5.73</v>
       </c>
       <c r="G104" s="29" t="s">
         <v>446</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="I104" s="16">
-        <v>24.92</v>
+        <v>21.07</v>
       </c>
       <c r="J104" s="16">
-        <v>21.15</v>
+        <v>7.1</v>
       </c>
       <c r="K104" s="12">
-        <v>14.18</v>
+        <v>11.7</v>
       </c>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
     </row>
     <row r="105" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D105" s="13">
-        <v>30.89</v>
+        <v>37.89</v>
       </c>
       <c r="E105" s="17">
-        <v>52542.400000000001</v>
+        <v>58977.06</v>
       </c>
       <c r="F105" s="15">
-        <v>5.73</v>
+        <v>7.31</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="I105" s="16">
-        <v>21.07</v>
+        <v>18.72</v>
       </c>
       <c r="J105" s="16">
-        <v>7.1</v>
+        <v>6.65</v>
       </c>
       <c r="K105" s="12">
-        <v>11.7</v>
+        <v>15.64</v>
       </c>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
     </row>
     <row r="106" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="12" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D106" s="13">
-        <v>37.89</v>
-      </c>
-      <c r="E106" s="17">
-        <v>58977.06</v>
+        <v>31.6</v>
+      </c>
+      <c r="E106" s="27">
+        <v>73400</v>
       </c>
       <c r="F106" s="15">
-        <v>7.31</v>
+        <v>7.74</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="I106" s="16">
-        <v>18.72</v>
+        <v>3.13</v>
       </c>
       <c r="J106" s="16">
-        <v>6.65</v>
+        <v>2.97</v>
       </c>
       <c r="K106" s="12">
-        <v>15.64</v>
+        <v>7.07</v>
       </c>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
     </row>
     <row r="107" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D107" s="13">
-        <v>31.6</v>
-      </c>
-      <c r="E107" s="27">
-        <v>73400</v>
+        <v>44.58</v>
+      </c>
+      <c r="E107" s="17">
+        <v>88343.64</v>
       </c>
       <c r="F107" s="15">
-        <v>7.74</v>
+        <v>5.94</v>
       </c>
       <c r="G107" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="H107" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="H107" s="24" t="s">
-        <v>392</v>
-      </c>
       <c r="I107" s="16">
-        <v>3.13</v>
+        <v>53.99</v>
       </c>
       <c r="J107" s="16">
-        <v>2.97</v>
+        <v>3.7</v>
       </c>
       <c r="K107" s="12">
-        <v>7.07</v>
+        <v>10.07</v>
       </c>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
     </row>
     <row r="108" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="12" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D108" s="13">
-        <v>44.58</v>
+        <v>31.33</v>
       </c>
       <c r="E108" s="17">
-        <v>88343.64</v>
+        <v>108055.17</v>
       </c>
       <c r="F108" s="15">
-        <v>5.94</v>
+        <v>6.23</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>451</v>
+        <v>319</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>452</v>
+        <v>320</v>
       </c>
       <c r="I108" s="16">
-        <v>53.99</v>
+        <v>15</v>
       </c>
       <c r="J108" s="16">
-        <v>3.7</v>
+        <v>14.43</v>
       </c>
       <c r="K108" s="12">
-        <v>10.07</v>
+        <v>8.32</v>
       </c>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
     </row>
     <row r="109" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D109" s="13">
-        <v>31.33</v>
+        <v>30.26</v>
       </c>
       <c r="E109" s="17">
-        <v>108055.17</v>
+        <v>90569.66</v>
       </c>
       <c r="F109" s="15">
-        <v>6.23</v>
+        <v>6.57</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I109" s="16">
-        <v>15</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="J109" s="16">
-        <v>14.43</v>
+        <v>4.47</v>
       </c>
       <c r="K109" s="12">
-        <v>8.32</v>
+        <v>7.54</v>
       </c>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
     </row>
     <row r="110" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D110" s="13">
-        <v>30.26</v>
+        <v>38.35</v>
       </c>
       <c r="E110" s="17">
-        <v>90569.66</v>
+        <v>71789.210000000006</v>
       </c>
       <c r="F110" s="15">
-        <v>6.57</v>
-      </c>
-      <c r="G110" s="29" t="s">
-        <v>320</v>
+        <v>9.59</v>
+      </c>
+      <c r="G110" s="29">
+        <v>69.87</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I110" s="16">
-        <v>37.200000000000003</v>
+        <v>18.97</v>
       </c>
       <c r="J110" s="16">
-        <v>4.47</v>
+        <v>15.32</v>
       </c>
       <c r="K110" s="12">
-        <v>7.54</v>
+        <v>6.17</v>
       </c>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
     </row>
     <row r="111" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="12" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>49</v>
+        <v>240</v>
       </c>
       <c r="D111" s="13">
-        <v>38.35</v>
+        <v>35.57</v>
       </c>
       <c r="E111" s="17">
-        <v>71789.210000000006</v>
+        <v>70209.600000000006</v>
       </c>
       <c r="F111" s="15">
-        <v>9.59</v>
-      </c>
-      <c r="G111" s="29">
-        <v>69.87</v>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="G111" s="29" t="s">
+        <v>451</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>316</v>
+        <v>452</v>
       </c>
       <c r="I111" s="16">
-        <v>18.97</v>
+        <v>53.11</v>
       </c>
       <c r="J111" s="16">
-        <v>15.32</v>
+        <v>4.99</v>
       </c>
       <c r="K111" s="12">
-        <v>6.17</v>
+        <v>12.74</v>
       </c>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
     </row>
     <row r="112" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="12" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="D112" s="13">
-        <v>35.57</v>
+        <v>29.4</v>
       </c>
       <c r="E112" s="17">
-        <v>70209.600000000006</v>
+        <v>53562.5</v>
       </c>
       <c r="F112" s="15">
-        <v>9.2200000000000006</v>
+        <v>5.4</v>
       </c>
       <c r="G112" s="29" t="s">
         <v>453</v>
@@ -6047,372 +6165,335 @@
         <v>454</v>
       </c>
       <c r="I112" s="16">
-        <v>53.11</v>
+        <v>18.29</v>
       </c>
       <c r="J112" s="16">
-        <v>4.99</v>
+        <v>13.86</v>
       </c>
       <c r="K112" s="12">
-        <v>12.74</v>
+        <v>13.78</v>
       </c>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
     </row>
     <row r="113" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D113" s="13">
-        <v>29.4</v>
+        <v>27.73</v>
       </c>
       <c r="E113" s="17">
-        <v>53562.5</v>
+        <v>69668</v>
       </c>
       <c r="F113" s="15">
-        <v>5.4</v>
+        <v>5.05</v>
       </c>
       <c r="G113" s="29" t="s">
         <v>455</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I113" s="16">
-        <v>18.29</v>
+        <v>45.56</v>
       </c>
       <c r="J113" s="16">
-        <v>13.86</v>
+        <v>1</v>
       </c>
       <c r="K113" s="12">
-        <v>13.78</v>
+        <v>8.27</v>
       </c>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
     </row>
     <row r="114" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="12" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D114" s="13">
-        <v>27.73</v>
+        <v>53.4</v>
       </c>
       <c r="E114" s="17">
-        <v>69668</v>
+        <v>28500</v>
       </c>
       <c r="F114" s="15">
-        <v>5.05</v>
+        <v>5.73</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I114" s="16">
-        <v>45.56</v>
+        <v>26.61</v>
       </c>
       <c r="J114" s="16">
-        <v>1</v>
+        <v>3.51</v>
       </c>
       <c r="K114" s="12">
-        <v>8.27</v>
+        <v>19.39</v>
       </c>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
     </row>
     <row r="115" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="12" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D115" s="13">
-        <v>53.4</v>
+        <v>30.89</v>
       </c>
       <c r="E115" s="17">
-        <v>28500</v>
+        <v>49596.92</v>
       </c>
       <c r="F115" s="15">
-        <v>5.73</v>
+        <v>6.86</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I115" s="16">
-        <v>26.61</v>
+        <v>20.49</v>
       </c>
       <c r="J115" s="16">
-        <v>3.51</v>
+        <v>7.43</v>
       </c>
       <c r="K115" s="12">
-        <v>19.39</v>
-      </c>
-      <c r="L115" s="12"/>
+        <v>15.44</v>
+      </c>
+      <c r="L115" s="12" t="s">
+        <v>457</v>
+      </c>
       <c r="M115" s="12"/>
     </row>
     <row r="116" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D116" s="13">
-        <v>30.89</v>
+        <v>25.46</v>
       </c>
       <c r="E116" s="17">
-        <v>49596.92</v>
+        <v>33280</v>
       </c>
       <c r="F116" s="15">
-        <v>6.86</v>
+        <v>7.95</v>
       </c>
       <c r="G116" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I116" s="16">
-        <v>20.49</v>
+        <v>37.5</v>
       </c>
       <c r="J116" s="16">
-        <v>7.43</v>
+        <v>12.38</v>
       </c>
       <c r="K116" s="12">
-        <v>15.44</v>
-      </c>
-      <c r="L116" s="12" t="s">
-        <v>459</v>
-      </c>
+        <v>17.68</v>
+      </c>
+      <c r="L116" s="12"/>
       <c r="M116" s="12"/>
     </row>
     <row r="117" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D117" s="13">
-        <v>25.46</v>
+        <v>31.33</v>
       </c>
       <c r="E117" s="17">
-        <v>33280</v>
+        <v>69081.600000000006</v>
       </c>
       <c r="F117" s="15">
-        <v>7.95</v>
+        <v>8.33</v>
       </c>
       <c r="G117" s="29" t="s">
         <v>460</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I117" s="16">
-        <v>37.5</v>
+        <v>24.97</v>
       </c>
       <c r="J117" s="16">
-        <v>12.38</v>
+        <v>13.86</v>
       </c>
       <c r="K117" s="12">
-        <v>17.68</v>
+        <v>9.5</v>
       </c>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
     </row>
     <row r="118" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="12" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D118" s="13">
-        <v>31.33</v>
+        <v>38.56</v>
       </c>
       <c r="E118" s="17">
-        <v>69081.600000000006</v>
+        <v>31200</v>
       </c>
       <c r="F118" s="15">
-        <v>8.33</v>
+        <v>4.43</v>
       </c>
       <c r="G118" s="29" t="s">
         <v>462</v>
       </c>
       <c r="H118" s="24" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="I118" s="16">
-        <v>24.97</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="J118" s="16">
-        <v>13.86</v>
+        <v>4.91</v>
       </c>
       <c r="K118" s="12">
-        <v>9.5</v>
+        <v>12.52</v>
       </c>
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
     </row>
     <row r="119" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="12" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D119" s="13">
-        <v>38.56</v>
+        <v>31.51</v>
       </c>
       <c r="E119" s="17">
-        <v>31200</v>
+        <v>55477.5</v>
       </c>
       <c r="F119" s="15">
-        <v>4.43</v>
+        <v>5.3</v>
       </c>
       <c r="G119" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="I119" s="16">
+        <v>27.83</v>
+      </c>
+      <c r="J119" s="16">
+        <v>27.83</v>
+      </c>
+      <c r="K119" s="12">
+        <v>12.84</v>
+      </c>
+      <c r="L119" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="H119" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="I119" s="16">
-        <v>39.380000000000003</v>
-      </c>
-      <c r="J119" s="16">
-        <v>4.91</v>
-      </c>
-      <c r="K119" s="12">
-        <v>12.52</v>
-      </c>
-      <c r="L119" s="12"/>
       <c r="M119" s="12"/>
     </row>
     <row r="120" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="12" t="s">
-        <v>153</v>
+        <v>286</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D120" s="13">
-        <v>31.51</v>
+        <v>32.93</v>
       </c>
       <c r="E120" s="17">
-        <v>55477.5</v>
+        <v>76643.899999999994</v>
       </c>
       <c r="F120" s="15">
-        <v>5.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G120" s="29" t="s">
         <v>465</v>
       </c>
       <c r="H120" s="24" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I120" s="16">
-        <v>27.83</v>
+        <v>51</v>
       </c>
       <c r="J120" s="16">
-        <v>27.83</v>
+        <v>23.34</v>
       </c>
       <c r="K120" s="12">
-        <v>12.84</v>
-      </c>
-      <c r="L120" s="12" t="s">
-        <v>466</v>
-      </c>
+        <v>10.81</v>
+      </c>
+      <c r="L120" s="12"/>
       <c r="M120" s="12"/>
     </row>
-    <row r="121" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D121" s="13">
-        <v>32.93</v>
-      </c>
-      <c r="E121" s="17">
-        <v>76643.899999999994</v>
-      </c>
-      <c r="F121" s="15">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G121" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="I121" s="16">
-        <v>51</v>
-      </c>
-      <c r="J121" s="16">
-        <v>23.34</v>
-      </c>
-      <c r="K121" s="12">
-        <v>10.81</v>
-      </c>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-    </row>
-    <row r="124" spans="1:13" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D124" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="E124" s="20" t="s">
+    <row r="123" spans="1:13" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D123" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G123" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="H123" s="25"/>
+      <c r="I123" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="F124" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="G124" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="H124" s="25"/>
-      <c r="I124" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="J124" s="22"/>
+      <c r="J123" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
